--- a/StructureDefinition-CARIN-BB-Organization.xlsx
+++ b/StructureDefinition-CARIN-BB-Organization.xlsx
@@ -2527,7 +2527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>84</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>49</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>40</v>
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>180</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>49</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>40</v>
@@ -5528,7 +5528,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>232</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>49</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
@@ -6085,7 +6085,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>257</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>49</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>40</v>
@@ -7871,7 +7871,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>232</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>49</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>40</v>
@@ -8428,7 +8428,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>257</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>49</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>40</v>
@@ -10101,7 +10101,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>232</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>49</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>40</v>
@@ -10658,7 +10658,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>257</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>49</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>40</v>

--- a/StructureDefinition-CARIN-BB-Organization.xlsx
+++ b/StructureDefinition-CARIN-BB-Organization.xlsx
@@ -1383,8 +1383,8 @@
   </si>
   <si>
     <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-22T13:00:00+00:00"/&gt;
-  &lt;end value="2010-06-30T14:00:00+00:00"/&gt;
+  &lt;start value="2010-03-23T00:00:00+11:00"/&gt;
+  &lt;end value="2010-07-01T00:00:00+10:00"/&gt;
 &lt;/valuePeriod&gt;</t>
   </si>
   <si>

--- a/StructureDefinition-CARIN-BB-Organization.xlsx
+++ b/StructureDefinition-CARIN-BB-Organization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4082" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4082" uniqueCount="496">
   <si>
     <t>Path</t>
   </si>
@@ -599,7 +599,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/IdentifierTypeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/OrganizationIdentifierTypeVS</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -721,7 +721,7 @@
     <t>NPI</t>
   </si>
   <si>
-    <t>National Provider Identifier (NPI)</t>
+    <t>National Provider Identifier</t>
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
@@ -828,6 +828,9 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
+    <t>npi</t>
+  </si>
+  <si>
     <t>Coding.code</t>
   </si>
   <si>
@@ -924,7 +927,10 @@
     <t>TIN</t>
   </si>
   <si>
-    <t>TAX</t>
+    <t>Tax ID Number</t>
+  </si>
+  <si>
+    <t>tax</t>
   </si>
   <si>
     <t>urn:oid:2.16.840.1.113883.4.4</t>
@@ -933,7 +939,7 @@
     <t>payerid</t>
   </si>
   <si>
-    <t>PAYERID</t>
+    <t>Payer ID</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -1731,7 +1737,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.30078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.0546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -6130,7 +6136,7 @@
         <v>40</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>40</v>
@@ -6169,7 +6175,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -6187,10 +6193,10 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>40</v>
@@ -6198,7 +6204,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6224,14 +6230,14 @@
         <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -6280,7 +6286,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6298,10 +6304,10 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
@@ -6309,7 +6315,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6332,19 +6338,19 @@
         <v>50</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -6393,7 +6399,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6411,10 +6417,10 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -6422,7 +6428,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6448,16 +6454,16 @@
         <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6506,7 +6512,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6524,10 +6530,10 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6982,7 +6988,7 @@
         <v>157</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>40</v>
@@ -7007,7 +7013,7 @@
         <v>158</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>160</v>
@@ -7024,7 +7030,7 @@
         <v>40</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>40</v>
@@ -7095,7 +7101,7 @@
         <v>157</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>40</v>
@@ -7120,7 +7126,7 @@
         <v>158</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>159</v>
+        <v>293</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>160</v>
@@ -8473,7 +8479,7 @@
         <v>40</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>40</v>
@@ -8512,7 +8518,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8530,10 +8536,10 @@
         <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>40</v>
@@ -8541,7 +8547,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8567,14 +8573,14 @@
         <v>51</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8623,7 +8629,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8641,10 +8647,10 @@
         <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>40</v>
@@ -8652,7 +8658,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8675,19 +8681,19 @@
         <v>50</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8736,7 +8742,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8754,10 +8760,10 @@
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>40</v>
@@ -8765,7 +8771,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8791,16 +8797,16 @@
         <v>51</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8849,7 +8855,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8867,10 +8873,10 @@
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>40</v>
@@ -8923,7 +8929,7 @@
         <v>40</v>
       </c>
       <c r="R65" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>194</v>
@@ -9325,7 +9331,7 @@
         <v>157</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>40</v>
@@ -9350,7 +9356,7 @@
         <v>158</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>159</v>
+        <v>297</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>160</v>
@@ -10703,7 +10709,7 @@
         <v>40</v>
       </c>
       <c r="R81" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>40</v>
@@ -10742,7 +10748,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10760,10 +10766,10 @@
         <v>40</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>40</v>
@@ -10771,7 +10777,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10797,14 +10803,14 @@
         <v>51</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>40</v>
@@ -10853,7 +10859,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10871,10 +10877,10 @@
         <v>40</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>40</v>
@@ -10882,7 +10888,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10905,19 +10911,19 @@
         <v>50</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>40</v>
@@ -10966,7 +10972,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10984,10 +10990,10 @@
         <v>40</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>40</v>
@@ -10995,7 +11001,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11021,16 +11027,16 @@
         <v>51</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>40</v>
@@ -11079,7 +11085,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -11097,10 +11103,10 @@
         <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>40</v>
@@ -11552,7 +11558,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11575,70 +11581,70 @@
         <v>50</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="Q89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE89" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P89" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="Q89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11653,21 +11659,21 @@
         <v>61</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11693,16 +11699,16 @@
         <v>181</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>40</v>
@@ -11730,10 +11736,10 @@
         <v>115</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>40</v>
@@ -11751,7 +11757,7 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -11769,18 +11775,18 @@
         <v>66</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11806,16 +11812,16 @@
         <v>51</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>40</v>
@@ -11864,7 +11870,7 @@
         <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -11879,13 +11885,13 @@
         <v>61</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>40</v>
@@ -11893,7 +11899,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11919,16 +11925,16 @@
         <v>51</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>40</v>
@@ -11977,7 +11983,7 @@
         <v>40</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -11998,7 +12004,7 @@
         <v>40</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>40</v>
@@ -12006,7 +12012,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12029,19 +12035,19 @@
         <v>40</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>40</v>
@@ -12090,7 +12096,7 @@
         <v>40</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -12099,19 +12105,19 @@
         <v>42</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>40</v>
@@ -12119,7 +12125,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12142,19 +12148,19 @@
         <v>40</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>40</v>
@@ -12203,7 +12209,7 @@
         <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
@@ -12212,19 +12218,19 @@
         <v>42</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>66</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>40</v>
@@ -12232,7 +12238,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12341,7 +12347,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12452,7 +12458,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12478,16 +12484,16 @@
         <v>125</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>40</v>
@@ -12500,7 +12506,7 @@
         <v>40</v>
       </c>
       <c r="S97" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="T97" t="s" s="2">
         <v>40</v>
@@ -12515,10 +12521,10 @@
         <v>175</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>40</v>
@@ -12536,7 +12542,7 @@
         <v>40</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
@@ -12551,13 +12557,13 @@
         <v>61</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>40</v>
@@ -12565,7 +12571,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12591,13 +12597,13 @@
         <v>125</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12611,7 +12617,7 @@
         <v>40</v>
       </c>
       <c r="S98" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>40</v>
@@ -12626,10 +12632,10 @@
         <v>175</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>40</v>
@@ -12647,7 +12653,7 @@
         <v>40</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -12665,10 +12671,10 @@
         <v>40</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>40</v>
@@ -12676,7 +12682,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12702,16 +12708,16 @@
         <v>51</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>40</v>
@@ -12724,7 +12730,7 @@
         <v>40</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>40</v>
@@ -12760,7 +12766,7 @@
         <v>40</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
@@ -12778,10 +12784,10 @@
         <v>40</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>40</v>
@@ -12789,7 +12795,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12800,7 +12806,7 @@
         <v>41</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>50</v>
@@ -12815,10 +12821,10 @@
         <v>51</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12833,7 +12839,7 @@
         <v>40</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>40</v>
@@ -12869,7 +12875,7 @@
         <v>40</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -12884,13 +12890,13 @@
         <v>61</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>40</v>
@@ -12898,11 +12904,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12924,10 +12930,10 @@
         <v>51</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12942,7 +12948,7 @@
         <v>40</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>40</v>
@@ -12978,7 +12984,7 @@
         <v>40</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
@@ -12993,13 +12999,13 @@
         <v>61</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>40</v>
@@ -13007,11 +13013,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13033,13 +13039,13 @@
         <v>51</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -13053,7 +13059,7 @@
         <v>40</v>
       </c>
       <c r="S102" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="T102" t="s" s="2">
         <v>40</v>
@@ -13089,7 +13095,7 @@
         <v>40</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
@@ -13107,10 +13113,10 @@
         <v>40</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>40</v>
@@ -13118,11 +13124,11 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13144,10 +13150,10 @@
         <v>51</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13177,10 +13183,10 @@
         <v>107</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>40</v>
@@ -13198,7 +13204,7 @@
         <v>40</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -13213,13 +13219,13 @@
         <v>61</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>40</v>
@@ -13227,11 +13233,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -13253,10 +13259,10 @@
         <v>51</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -13271,7 +13277,7 @@
         <v>40</v>
       </c>
       <c r="S104" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="T104" t="s" s="2">
         <v>40</v>
@@ -13307,7 +13313,7 @@
         <v>40</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>41</v>
@@ -13322,13 +13328,13 @@
         <v>61</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>40</v>
@@ -13336,7 +13342,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13362,13 +13368,13 @@
         <v>51</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -13418,7 +13424,7 @@
         <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -13433,13 +13439,13 @@
         <v>61</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>40</v>
@@ -13447,7 +13453,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13473,14 +13479,14 @@
         <v>209</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>40</v>
@@ -13493,7 +13499,7 @@
         <v>40</v>
       </c>
       <c r="S106" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="T106" t="s" s="2">
         <v>40</v>
@@ -13529,7 +13535,7 @@
         <v>40</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>41</v>
@@ -13547,10 +13553,10 @@
         <v>213</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>40</v>
@@ -13558,7 +13564,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13584,14 +13590,14 @@
         <v>217</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>40</v>
@@ -13640,7 +13646,7 @@
         <v>40</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>41</v>
@@ -13658,10 +13664,10 @@
         <v>66</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>40</v>
@@ -13669,7 +13675,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13692,19 +13698,19 @@
         <v>40</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>40</v>
@@ -13753,7 +13759,7 @@
         <v>40</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>41</v>
@@ -13774,7 +13780,7 @@
         <v>40</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>40</v>
@@ -13782,7 +13788,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13891,7 +13897,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14002,11 +14008,11 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -14028,10 +14034,10 @@
         <v>69</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>72</v>
@@ -14086,7 +14092,7 @@
         <v>40</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>41</v>
@@ -14115,7 +14121,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14141,14 +14147,14 @@
         <v>181</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>40</v>
@@ -14176,10 +14182,10 @@
         <v>107</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>40</v>
@@ -14197,7 +14203,7 @@
         <v>40</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>41</v>
@@ -14218,7 +14224,7 @@
         <v>40</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>40</v>
@@ -14226,7 +14232,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14249,17 +14255,17 @@
         <v>40</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>40</v>
@@ -14308,7 +14314,7 @@
         <v>40</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>41</v>
@@ -14326,10 +14332,10 @@
         <v>40</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>40</v>
@@ -14337,7 +14343,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14360,17 +14366,17 @@
         <v>40</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>40</v>
@@ -14419,7 +14425,7 @@
         <v>40</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>41</v>
@@ -14437,10 +14443,10 @@
         <v>40</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>40</v>
@@ -14448,7 +14454,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14471,17 +14477,17 @@
         <v>40</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>40</v>
@@ -14530,7 +14536,7 @@
         <v>40</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>41</v>
@@ -14548,10 +14554,10 @@
         <v>40</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>40</v>
@@ -14559,7 +14565,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14582,17 +14588,17 @@
         <v>40</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>40</v>
@@ -14641,7 +14647,7 @@
         <v>40</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-Organization.xlsx
+++ b/StructureDefinition-CARIN-BB-Organization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$95</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4082" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3344" uniqueCount="457">
   <si>
     <t>Path</t>
   </si>
@@ -725,6 +725,12 @@
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;type&gt;
+    &lt;coding&gt;
+      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/IdentifierTypeCS"/&gt;
+      &lt;code value="npi"/&gt;
+    &lt;/coding&gt;
+  &lt;/type&gt;
   &lt;system value="http://hl7.org/fhir/sid/us-npi"/&gt;
 &lt;/valueIdentifier&gt;</t>
   </si>
@@ -763,130 +769,6 @@
   </si>
   <si>
     <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type.coding.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>npi</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
   </si>
   <si>
     <t>Organization.identifier.type.text</t>
@@ -930,7 +812,14 @@
     <t>Tax ID Number</t>
   </si>
   <si>
-    <t>tax</t>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;type&gt;
+    &lt;coding&gt;
+      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/IdentifierTypeCS"/&gt;
+      &lt;code value="tax"/&gt;
+    &lt;/coding&gt;
+  &lt;/type&gt;
+&lt;/valueIdentifier&gt;</t>
   </si>
   <si>
     <t>urn:oid:2.16.840.1.113883.4.4</t>
@@ -942,7 +831,21 @@
     <t>Payer ID</t>
   </si>
   <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;type&gt;
+    &lt;coding&gt;
+      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/IdentifierTypeCS"/&gt;
+      &lt;code value="payerid"/&gt;
+    &lt;/coding&gt;
+  &lt;/type&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
     <t>Organization.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
   </si>
   <si>
     <t>Whether the organization's record is still in active use</t>
@@ -1704,7 +1607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM116"/>
+  <dimension ref="A1:AM95"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1713,7 +1616,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.5234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.4375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -5669,19 +5572,23 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5729,7 +5636,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>65</v>
+        <v>245</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5741,16 +5648,16 @@
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>66</v>
+        <v>247</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5758,18 +5665,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5778,21 +5685,23 @@
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5804,7 +5713,7 @@
         <v>40</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>40</v>
@@ -5828,40 +5737,40 @@
         <v>40</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5869,7 +5778,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5892,20 +5801,18 @@
         <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5917,7 +5824,7 @@
         <v>40</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>40</v>
@@ -5953,7 +5860,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5968,13 +5875,13 @@
         <v>61</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5982,7 +5889,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6005,17 +5912,15 @@
         <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>51</v>
+        <v>209</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -6064,7 +5969,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -6079,21 +5984,21 @@
         <v>61</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6101,13 +6006,13 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>40</v>
@@ -6116,18 +6021,18 @@
         <v>50</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
       </c>
@@ -6136,7 +6041,7 @@
         <v>40</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>40</v>
@@ -6175,7 +6080,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -6190,23 +6095,25 @@
         <v>61</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>40</v>
       </c>
@@ -6218,7 +6125,7 @@
         <v>49</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>40</v>
@@ -6227,17 +6134,17 @@
         <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>267</v>
+        <v>160</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>268</v>
+        <v>162</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -6247,7 +6154,7 @@
         <v>40</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>40</v>
@@ -6286,38 +6193,40 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>269</v>
+        <v>157</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>271</v>
+        <v>166</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6326,10 +6235,10 @@
         <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>40</v>
@@ -6338,19 +6247,19 @@
         <v>50</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>273</v>
+        <v>158</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>275</v>
+        <v>160</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>276</v>
+        <v>161</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>277</v>
+        <v>162</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -6360,7 +6269,7 @@
         <v>40</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>40</v>
@@ -6399,36 +6308,36 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>278</v>
+        <v>157</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>279</v>
+        <v>165</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>280</v>
+        <v>166</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>281</v>
+        <v>168</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6448,23 +6357,19 @@
         <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>282</v>
+        <v>63</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6512,7 +6417,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>286</v>
+        <v>65</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6524,16 +6429,16 @@
         <v>40</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>288</v>
+        <v>66</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6541,18 +6446,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -6561,23 +6466,21 @@
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6589,7 +6492,7 @@
         <v>40</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>40</v>
@@ -6613,40 +6516,40 @@
         <v>40</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>198</v>
+        <v>66</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
@@ -6654,7 +6557,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6671,24 +6574,26 @@
         <v>40</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6700,7 +6605,7 @@
         <v>40</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>40</v>
@@ -6712,13 +6617,13 @@
         <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>40</v>
@@ -6736,7 +6641,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6751,13 +6656,13 @@
         <v>61</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6765,7 +6670,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6788,16 +6693,20 @@
         <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6821,13 +6730,13 @@
         <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>40</v>
@@ -6845,7 +6754,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6860,13 +6769,13 @@
         <v>61</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>40</v>
@@ -6874,7 +6783,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6894,20 +6803,18 @@
         <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>217</v>
+        <v>51</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>218</v>
+        <v>63</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6956,7 +6863,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6968,60 +6875,58 @@
         <v>40</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>224</v>
+        <v>66</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>40</v>
       </c>
@@ -7030,7 +6935,7 @@
         <v>40</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>291</v>
+        <v>40</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>40</v>
@@ -7057,19 +6962,19 @@
         <v>40</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -7078,40 +6983,38 @@
         <v>42</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="AK48" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="AM48" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>50</v>
@@ -7123,19 +7026,19 @@
         <v>50</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>293</v>
+        <v>233</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -7184,7 +7087,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -7193,27 +7096,27 @@
         <v>42</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>168</v>
+        <v>240</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7233,19 +7136,23 @@
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
       </c>
@@ -7293,7 +7200,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>65</v>
+        <v>245</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7305,16 +7212,16 @@
         <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>66</v>
+        <v>247</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
@@ -7322,18 +7229,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -7342,21 +7249,23 @@
         <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
       </c>
@@ -7365,10 +7274,10 @@
         <v>40</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>40</v>
@@ -7392,40 +7301,40 @@
         <v>40</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
@@ -7433,7 +7342,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7450,26 +7359,24 @@
         <v>40</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7481,7 +7388,7 @@
         <v>40</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>40</v>
@@ -7493,13 +7400,13 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>40</v>
@@ -7517,7 +7424,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7532,13 +7439,13 @@
         <v>61</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>40</v>
@@ -7546,7 +7453,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7569,20 +7476,16 @@
         <v>50</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7606,13 +7509,13 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>40</v>
@@ -7630,7 +7533,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7645,13 +7548,13 @@
         <v>61</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>40</v>
@@ -7659,7 +7562,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7679,18 +7582,20 @@
         <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>51</v>
+        <v>217</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>63</v>
+        <v>218</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7739,7 +7644,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>65</v>
+        <v>221</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7751,28 +7656,30 @@
         <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="C55" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7782,27 +7689,29 @@
         <v>42</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>70</v>
+        <v>256</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7811,7 +7720,7 @@
         <v>40</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>40</v>
@@ -7838,19 +7747,19 @@
         <v>40</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7859,27 +7768,27 @@
         <v>42</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7887,35 +7796,31 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>233</v>
+        <v>63</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7963,28 +7868,28 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>239</v>
+        <v>66</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>40</v>
@@ -7992,18 +7897,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>240</v>
+        <v>169</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
@@ -8015,15 +7920,17 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -8060,31 +7967,31 @@
         <v>40</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>40</v>
@@ -8101,41 +8008,43 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
@@ -8159,52 +8068,52 @@
         <v>40</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>40</v>
@@ -8212,7 +8121,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8235,19 +8144,19 @@
         <v>50</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -8272,13 +8181,13 @@
         <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>40</v>
@@ -8296,7 +8205,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8314,10 +8223,10 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>249</v>
+        <v>179</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>40</v>
@@ -8325,7 +8234,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8345,20 +8254,18 @@
         <v>40</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>251</v>
+        <v>63</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8407,7 +8314,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>254</v>
+        <v>65</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8419,58 +8326,58 @@
         <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>256</v>
+        <v>66</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>258</v>
+        <v>70</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8479,7 +8386,7 @@
         <v>40</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>294</v>
+        <v>40</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>40</v>
@@ -8506,48 +8413,48 @@
         <v>40</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>264</v>
+        <v>66</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8555,13 +8462,13 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
@@ -8570,17 +8477,19 @@
         <v>50</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="N62" t="s" s="2">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8629,13 +8538,13 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
@@ -8647,10 +8556,10 @@
         <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>40</v>
@@ -8658,7 +8567,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8681,19 +8590,19 @@
         <v>50</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>273</v>
+        <v>51</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8742,7 +8651,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8760,10 +8669,10 @@
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>40</v>
@@ -8771,7 +8680,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>281</v>
+        <v>189</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8794,19 +8703,19 @@
         <v>50</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>282</v>
+        <v>190</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>283</v>
+        <v>191</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>284</v>
+        <v>192</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8819,7 +8728,7 @@
         <v>40</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>40</v>
@@ -8855,7 +8764,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8870,13 +8779,13 @@
         <v>61</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>287</v>
+        <v>197</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>288</v>
+        <v>198</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>40</v>
@@ -8884,7 +8793,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8907,20 +8816,18 @@
         <v>50</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>40</v>
       </c>
@@ -8929,10 +8836,10 @@
         <v>40</v>
       </c>
       <c r="R65" t="s" s="2">
-        <v>295</v>
+        <v>40</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>40</v>
@@ -8968,7 +8875,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8983,13 +8890,13 @@
         <v>61</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>40</v>
@@ -8997,7 +8904,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9020,17 +8927,15 @@
         <v>50</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>51</v>
+        <v>209</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -9043,7 +8948,7 @@
         <v>40</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>40</v>
@@ -9079,7 +8984,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -9094,13 +8999,13 @@
         <v>61</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>40</v>
@@ -9108,7 +9013,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9131,15 +9036,17 @@
         <v>50</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>40</v>
@@ -9188,7 +9095,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -9203,21 +9110,21 @@
         <v>61</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9225,37 +9132,41 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="Q68" t="s" s="2">
         <v>40</v>
       </c>
@@ -9299,7 +9210,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9314,25 +9225,23 @@
         <v>61</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>40</v>
+        <v>268</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>40</v>
       </c>
@@ -9344,7 +9253,7 @@
         <v>42</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
@@ -9353,19 +9262,19 @@
         <v>50</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>160</v>
+        <v>271</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>161</v>
+        <v>272</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>162</v>
+        <v>273</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>40</v>
@@ -9390,13 +9299,13 @@
         <v>40</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>40</v>
@@ -9414,7 +9323,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>157</v>
+        <v>269</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9423,7 +9332,7 @@
         <v>42</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>61</v>
@@ -9432,18 +9341,18 @@
         <v>66</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>165</v>
+        <v>276</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>166</v>
+        <v>277</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>167</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>168</v>
+        <v>279</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9451,31 +9360,35 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>63</v>
+        <v>280</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>40</v>
       </c>
@@ -9523,7 +9436,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>65</v>
+        <v>279</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9532,19 +9445,19 @@
         <v>49</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>40</v>
+        <v>284</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>40</v>
+        <v>285</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>66</v>
+        <v>286</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>40</v>
@@ -9552,11 +9465,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>169</v>
+        <v>287</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9575,18 +9488,20 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>70</v>
+        <v>288</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>71</v>
+        <v>289</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>40</v>
       </c>
@@ -9622,19 +9537,19 @@
         <v>40</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9646,7 +9561,7 @@
         <v>40</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>40</v>
@@ -9655,15 +9570,15 @@
         <v>40</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>66</v>
+        <v>286</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>170</v>
+        <v>292</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9674,31 +9589,31 @@
         <v>41</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>125</v>
+        <v>293</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>171</v>
+        <v>294</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>172</v>
+        <v>295</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>173</v>
+        <v>296</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>174</v>
+        <v>297</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>40</v>
@@ -9723,13 +9638,13 @@
         <v>40</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>40</v>
@@ -9747,36 +9662,36 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>178</v>
+        <v>292</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>40</v>
+        <v>298</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>61</v>
+        <v>299</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>148</v>
+        <v>301</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>179</v>
+        <v>302</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>180</v>
+        <v>303</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9787,31 +9702,31 @@
         <v>41</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>181</v>
+        <v>304</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>182</v>
+        <v>305</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>183</v>
+        <v>306</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>184</v>
+        <v>307</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>185</v>
+        <v>308</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>40</v>
@@ -9836,13 +9751,13 @@
         <v>40</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>40</v>
@@ -9860,28 +9775,28 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>187</v>
+        <v>303</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>40</v>
+        <v>309</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>61</v>
+        <v>310</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>188</v>
+        <v>311</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>179</v>
+        <v>312</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>40</v>
@@ -9889,7 +9804,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>230</v>
+        <v>313</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9998,7 +9913,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10107,9 +10022,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>232</v>
+        <v>315</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10117,34 +10032,34 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H76" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>233</v>
+        <v>316</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>234</v>
+        <v>317</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>235</v>
+        <v>318</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>40</v>
@@ -10157,7 +10072,7 @@
         <v>40</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>40</v>
@@ -10169,13 +10084,13 @@
         <v>40</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>40</v>
+        <v>321</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>40</v>
+        <v>322</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>40</v>
@@ -10193,13 +10108,13 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>40</v>
@@ -10208,13 +10123,13 @@
         <v>61</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>40</v>
+        <v>324</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>238</v>
+        <v>325</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>239</v>
+        <v>326</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>40</v>
@@ -10222,7 +10137,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>240</v>
+        <v>327</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10242,18 +10157,20 @@
         <v>40</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>63</v>
+        <v>328</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>40</v>
@@ -10266,7 +10183,7 @@
         <v>40</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>40</v>
@@ -10278,13 +10195,13 @@
         <v>40</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>40</v>
+        <v>332</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>40</v>
@@ -10302,7 +10219,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>65</v>
+        <v>334</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10314,16 +10231,16 @@
         <v>40</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>66</v>
+        <v>326</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>40</v>
@@ -10331,18 +10248,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>241</v>
+        <v>336</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>40</v>
@@ -10351,21 +10268,23 @@
         <v>40</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>70</v>
+        <v>337</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>71</v>
+        <v>338</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>40</v>
       </c>
@@ -10377,7 +10296,7 @@
         <v>40</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>40</v>
+        <v>341</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>40</v>
@@ -10401,48 +10320,48 @@
         <v>40</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>40</v>
+        <v>343</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>66</v>
+        <v>344</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>242</v>
+        <v>345</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10453,10 +10372,10 @@
         <v>41</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>49</v>
+        <v>346</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>40</v>
@@ -10465,20 +10384,16 @@
         <v>50</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>243</v>
+        <v>347</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>40</v>
       </c>
@@ -10490,7 +10405,7 @@
         <v>40</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>40</v>
+        <v>349</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>40</v>
@@ -10526,13 +10441,13 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>247</v>
+        <v>350</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>40</v>
@@ -10541,25 +10456,25 @@
         <v>61</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>248</v>
+        <v>352</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>249</v>
+        <v>353</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>40</v>
+        <v>355</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10569,7 +10484,7 @@
         <v>49</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>40</v>
@@ -10581,14 +10496,12 @@
         <v>51</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>251</v>
+        <v>356</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>40</v>
@@ -10601,7 +10514,7 @@
         <v>40</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>40</v>
+        <v>358</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>40</v>
@@ -10637,7 +10550,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>254</v>
+        <v>359</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10652,35 +10565,35 @@
         <v>61</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>40</v>
+        <v>360</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>255</v>
+        <v>361</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>256</v>
+        <v>362</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>257</v>
+        <v>363</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>40</v>
+        <v>364</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>40</v>
@@ -10689,18 +10602,18 @@
         <v>50</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>258</v>
+        <v>365</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>40</v>
       </c>
@@ -10709,10 +10622,10 @@
         <v>40</v>
       </c>
       <c r="R81" t="s" s="2">
-        <v>296</v>
+        <v>40</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>40</v>
+        <v>368</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>40</v>
@@ -10748,7 +10661,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10766,22 +10679,22 @@
         <v>40</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>263</v>
+        <v>370</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>264</v>
+        <v>371</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>265</v>
+        <v>372</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>40</v>
+        <v>373</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10791,7 +10704,7 @@
         <v>49</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>40</v>
@@ -10803,15 +10716,13 @@
         <v>51</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>266</v>
+        <v>374</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>267</v>
+        <v>375</v>
       </c>
       <c r="M82" s="2"/>
-      <c r="N82" t="s" s="2">
-        <v>268</v>
-      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>40</v>
       </c>
@@ -10835,13 +10746,13 @@
         <v>40</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>40</v>
+        <v>376</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>40</v>
+        <v>377</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>40</v>
@@ -10859,7 +10770,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>269</v>
+        <v>378</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10874,25 +10785,25 @@
         <v>61</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>40</v>
+        <v>379</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>271</v>
+        <v>381</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>272</v>
+        <v>382</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>40</v>
+        <v>383</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10902,7 +10813,7 @@
         <v>49</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>40</v>
@@ -10911,20 +10822,16 @@
         <v>50</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>273</v>
+        <v>51</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>274</v>
+        <v>384</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>40</v>
       </c>
@@ -10936,7 +10843,7 @@
         <v>40</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>40</v>
+        <v>386</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>40</v>
@@ -10972,7 +10879,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>278</v>
+        <v>387</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10987,21 +10894,21 @@
         <v>61</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>40</v>
+        <v>388</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>279</v>
+        <v>389</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>280</v>
+        <v>390</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>281</v>
+        <v>391</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11015,7 +10922,7 @@
         <v>49</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>40</v>
@@ -11027,17 +10934,15 @@
         <v>51</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>282</v>
+        <v>392</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>283</v>
+        <v>393</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>40</v>
       </c>
@@ -11085,7 +10990,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>286</v>
+        <v>395</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -11100,13 +11005,13 @@
         <v>61</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>40</v>
+        <v>396</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>287</v>
+        <v>397</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>288</v>
+        <v>398</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>40</v>
@@ -11114,7 +11019,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>189</v>
+        <v>399</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11137,19 +11042,17 @@
         <v>50</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>91</v>
+        <v>209</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>190</v>
+        <v>400</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>193</v>
+        <v>402</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>40</v>
@@ -11162,7 +11065,7 @@
         <v>40</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>194</v>
+        <v>403</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>40</v>
@@ -11198,7 +11101,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>195</v>
+        <v>404</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -11213,13 +11116,13 @@
         <v>61</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>197</v>
+        <v>405</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>198</v>
+        <v>406</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>40</v>
@@ -11227,7 +11130,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>199</v>
+        <v>407</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11250,18 +11153,18 @@
         <v>50</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>51</v>
+        <v>217</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>200</v>
+        <v>408</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>40</v>
       </c>
@@ -11273,7 +11176,7 @@
         <v>40</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>40</v>
@@ -11309,7 +11212,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>204</v>
+        <v>407</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -11324,13 +11227,13 @@
         <v>61</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>207</v>
+        <v>411</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>40</v>
@@ -11338,7 +11241,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>208</v>
+        <v>412</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11349,7 +11252,7 @@
         <v>41</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>40</v>
@@ -11358,19 +11261,23 @@
         <v>40</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>209</v>
+        <v>413</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>210</v>
+        <v>414</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>40</v>
       </c>
@@ -11418,13 +11325,13 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>212</v>
+        <v>412</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>40</v>
@@ -11433,13 +11340,13 @@
         <v>61</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>215</v>
+        <v>418</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>40</v>
@@ -11447,7 +11354,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11467,20 +11374,18 @@
         <v>40</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>217</v>
+        <v>51</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>218</v>
+        <v>63</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>40</v>
@@ -11529,7 +11434,7 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11541,66 +11446,62 @@
         <v>40</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>224</v>
+        <v>66</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>273</v>
+        <v>69</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>299</v>
+        <v>70</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>300</v>
+        <v>71</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P89" t="s" s="2">
-        <v>303</v>
-      </c>
+      <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
         <v>40</v>
       </c>
@@ -11644,40 +11545,40 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>304</v>
+        <v>40</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>306</v>
+        <v>66</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>307</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>308</v>
+        <v>421</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>40</v>
+        <v>422</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11690,25 +11591,25 @@
         <v>40</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>309</v>
+        <v>423</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>310</v>
+        <v>424</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>311</v>
+        <v>72</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>312</v>
+        <v>155</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>40</v>
@@ -11733,13 +11634,13 @@
         <v>40</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>313</v>
+        <v>40</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>40</v>
@@ -11757,7 +11658,7 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>308</v>
+        <v>425</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -11769,24 +11670,24 @@
         <v>40</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>315</v>
+        <v>40</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>316</v>
+        <v>148</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>317</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>318</v>
+        <v>426</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11794,34 +11695,32 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>319</v>
+        <v>427</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
-        <v>322</v>
+        <v>429</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>40</v>
@@ -11846,13 +11745,13 @@
         <v>40</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>40</v>
+        <v>430</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>40</v>
+        <v>431</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>40</v>
@@ -11870,7 +11769,7 @@
         <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>318</v>
+        <v>426</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -11879,19 +11778,19 @@
         <v>49</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>324</v>
+        <v>40</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>325</v>
+        <v>432</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>40</v>
@@ -11899,7 +11798,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>326</v>
+        <v>433</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11910,7 +11809,7 @@
         <v>41</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>40</v>
@@ -11922,19 +11821,17 @@
         <v>40</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>51</v>
+        <v>434</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>327</v>
+        <v>435</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>330</v>
+        <v>437</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>40</v>
@@ -11983,13 +11880,13 @@
         <v>40</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>326</v>
+        <v>433</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>40</v>
@@ -12001,18 +11898,18 @@
         <v>40</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>40</v>
+        <v>438</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>325</v>
+        <v>439</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>331</v>
+        <v>440</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12026,7 +11923,7 @@
         <v>42</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>40</v>
@@ -12035,19 +11932,17 @@
         <v>40</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>333</v>
+        <v>441</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" t="s" s="2">
-        <v>336</v>
+        <v>443</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>40</v>
@@ -12096,7 +11991,7 @@
         <v>40</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>331</v>
+        <v>440</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -12105,27 +12000,27 @@
         <v>42</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>337</v>
+        <v>40</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>338</v>
+        <v>61</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>339</v>
+        <v>40</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>340</v>
+        <v>444</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>341</v>
+        <v>445</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>342</v>
+        <v>446</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12136,10 +12031,10 @@
         <v>41</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>40</v>
@@ -12148,19 +12043,17 @@
         <v>40</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>344</v>
+        <v>447</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" t="s" s="2">
-        <v>347</v>
+        <v>449</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>40</v>
@@ -12209,28 +12102,28 @@
         <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>342</v>
+        <v>446</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>348</v>
+        <v>40</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>349</v>
+        <v>61</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>40</v>
@@ -12238,7 +12131,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>352</v>
+        <v>452</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12249,7 +12142,7 @@
         <v>41</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>40</v>
@@ -12261,16 +12154,18 @@
         <v>40</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>51</v>
+        <v>453</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>63</v>
+        <v>454</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>64</v>
+        <v>455</v>
       </c>
       <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+      <c r="N95" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>40</v>
       </c>
@@ -12318,19 +12213,19 @@
         <v>40</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>65</v>
+        <v>452</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>40</v>
@@ -12345,2337 +12240,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F112" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M112" s="2"/>
-      <c r="N112" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P112" s="2"/>
-      <c r="Q112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F113" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M113" s="2"/>
-      <c r="N113" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P113" s="2"/>
-      <c r="Q113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F114" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M114" s="2"/>
-      <c r="N114" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F115" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M115" s="2"/>
-      <c r="N115" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P115" s="2"/>
-      <c r="Q115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F116" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M116" s="2"/>
-      <c r="N116" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P116" s="2"/>
-      <c r="Q116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AM116">
+  <autoFilter ref="A1:AM95">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14685,7 +12251,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI115">
+  <conditionalFormatting sqref="A2:AI94">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-CARIN-BB-Organization.xlsx
+++ b/StructureDefinition-CARIN-BB-Organization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$87</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3344" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3064" uniqueCount="456">
   <si>
     <t>Path</t>
   </si>
@@ -542,180 +542,6 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Organization.identifier.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/OrganizationIdentifierTypeVS</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Organization.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>./IdentifierType</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>Organization.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>Organization.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>Organization.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>./IdentifierIssuingAuthority</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
     <t>NPI</t>
@@ -735,12 +561,73 @@
 &lt;/valueIdentifier&gt;</t>
   </si>
   <si>
+    <t>Organization.identifier.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Organization.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
     <t>Organization.identifier.type.id</t>
   </si>
   <si>
@@ -793,6 +680,116 @@
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Organization.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Organization.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Organization.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Organization.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
     <t>CLIA</t>
@@ -1607,7 +1604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM95"/>
+  <dimension ref="A1:AM87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1640,7 +1637,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.0546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.5859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -3770,11 +3767,13 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3786,25 +3785,27 @@
         <v>49</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3813,7 +3814,7 @@
         <v>40</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>40</v>
@@ -3852,47 +3853,47 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3904,17 +3905,15 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3951,31 +3950,31 @@
         <v>40</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>40</v>
@@ -3992,43 +3991,41 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
@@ -4052,60 +4049,60 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4113,34 +4110,34 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -4165,11 +4162,13 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="X23" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="Y23" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
@@ -4187,7 +4186,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4205,18 +4204,18 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4230,7 +4229,7 @@
         <v>49</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>40</v>
@@ -4239,19 +4238,19 @@
         <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -4264,7 +4263,7 @@
         <v>40</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>40</v>
@@ -4276,13 +4275,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -4300,7 +4299,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4315,21 +4314,21 @@
         <v>61</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4343,26 +4342,24 @@
         <v>49</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4375,7 +4372,7 @@
         <v>40</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>40</v>
@@ -4411,7 +4408,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>204</v>
+        <v>65</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4423,16 +4420,16 @@
         <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -4440,18 +4437,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -4460,18 +4457,20 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4508,48 +4507,48 @@
         <v>40</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4557,13 +4556,13 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>40</v>
@@ -4572,18 +4571,20 @@
         <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>217</v>
+        <v>103</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4631,13 +4632,13 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -4646,25 +4647,23 @@
         <v>61</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4676,7 +4675,7 @@
         <v>49</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>40</v>
@@ -4685,17 +4684,19 @@
         <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="N28" t="s" s="2">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4705,7 +4706,7 @@
         <v>40</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>40</v>
@@ -4744,36 +4745,36 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4793,19 +4794,23 @@
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4817,7 +4822,7 @@
         <v>40</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>40</v>
@@ -4853,7 +4858,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4865,16 +4870,16 @@
         <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4882,18 +4887,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
@@ -4902,19 +4907,19 @@
         <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>70</v>
+        <v>222</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4928,7 +4933,7 @@
         <v>40</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>40</v>
@@ -4952,40 +4957,40 @@
         <v>40</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4993,7 +4998,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5010,26 +5015,22 @@
         <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
       </c>
@@ -5053,13 +5054,13 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>40</v>
@@ -5077,7 +5078,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -5092,13 +5093,13 @@
         <v>61</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>148</v>
+        <v>236</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -5106,7 +5107,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5129,20 +5130,18 @@
         <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -5166,13 +5165,13 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -5190,7 +5189,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5205,23 +5204,25 @@
         <v>61</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>179</v>
+        <v>246</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>40</v>
       </c>
@@ -5233,25 +5234,27 @@
         <v>49</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>63</v>
+        <v>248</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
@@ -5260,7 +5263,7 @@
         <v>40</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>40</v>
@@ -5299,40 +5302,42 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="C34" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5342,27 +5347,29 @@
         <v>42</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
       </c>
@@ -5371,7 +5378,7 @@
         <v>40</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>40</v>
@@ -5398,19 +5405,19 @@
         <v>40</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5419,27 +5426,27 @@
         <v>42</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5447,35 +5454,31 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>233</v>
+        <v>63</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5523,28 +5526,28 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>239</v>
+        <v>66</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5552,18 +5555,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -5572,23 +5575,21 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>241</v>
+        <v>70</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>242</v>
+        <v>71</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5624,40 +5625,40 @@
         <v>40</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>247</v>
+        <v>66</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5665,7 +5666,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5682,25 +5683,25 @@
         <v>40</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5713,7 +5714,7 @@
         <v>40</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>40</v>
@@ -5725,13 +5726,13 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
@@ -5749,7 +5750,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5764,13 +5765,13 @@
         <v>61</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5778,7 +5779,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5801,18 +5802,20 @@
         <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5824,7 +5827,7 @@
         <v>40</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>40</v>
@@ -5836,13 +5839,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5860,7 +5863,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5875,13 +5878,13 @@
         <v>61</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5889,7 +5892,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5909,16 +5912,16 @@
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5969,7 +5972,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>212</v>
+        <v>65</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5981,16 +5984,16 @@
         <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
@@ -5998,18 +6001,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -6018,19 +6021,19 @@
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6068,40 +6071,40 @@
         <v>40</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>224</v>
+        <v>66</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>40</v>
@@ -6109,17 +6112,15 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>49</v>
@@ -6134,17 +6135,19 @@
         <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="N41" t="s" s="2">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -6154,7 +6157,7 @@
         <v>40</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>40</v>
@@ -6193,7 +6196,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6202,31 +6205,29 @@
         <v>42</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6235,10 +6236,10 @@
         <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>40</v>
@@ -6247,19 +6248,19 @@
         <v>50</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -6269,7 +6270,7 @@
         <v>40</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>40</v>
@@ -6308,36 +6309,36 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6357,19 +6358,23 @@
         <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6378,10 +6383,10 @@
         <v>40</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>40</v>
@@ -6417,7 +6422,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6429,16 +6434,16 @@
         <v>40</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6446,18 +6451,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -6466,19 +6471,19 @@
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>70</v>
+        <v>222</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6492,7 +6497,7 @@
         <v>40</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>40</v>
@@ -6516,40 +6521,40 @@
         <v>40</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
@@ -6557,7 +6562,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6574,26 +6579,22 @@
         <v>40</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6617,13 +6618,13 @@
         <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>40</v>
@@ -6641,7 +6642,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6656,13 +6657,13 @@
         <v>61</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>148</v>
+        <v>236</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6670,7 +6671,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6693,20 +6694,18 @@
         <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6730,13 +6729,13 @@
         <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>40</v>
@@ -6754,7 +6753,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6769,23 +6768,25 @@
         <v>61</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>179</v>
+        <v>246</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="C47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6794,28 +6795,32 @@
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6824,7 +6829,7 @@
         <v>40</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>40</v>
@@ -6863,47 +6868,47 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>40</v>
@@ -6915,17 +6920,15 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6962,31 +6965,31 @@
         <v>40</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>40</v>
@@ -7001,45 +7004,43 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>233</v>
+        <v>70</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
       </c>
@@ -7075,19 +7076,19 @@
         <v>40</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -7099,16 +7100,16 @@
         <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>239</v>
+        <v>66</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>40</v>
@@ -7116,7 +7117,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7133,25 +7134,25 @@
         <v>40</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>243</v>
+        <v>176</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>244</v>
+        <v>177</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
@@ -7176,13 +7177,13 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
@@ -7200,7 +7201,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7218,10 +7219,10 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>246</v>
+        <v>148</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
@@ -7229,7 +7230,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7252,19 +7253,19 @@
         <v>50</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -7274,10 +7275,10 @@
         <v>40</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>40</v>
@@ -7289,13 +7290,13 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>40</v>
@@ -7313,7 +7314,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7328,13 +7329,13 @@
         <v>61</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
@@ -7342,7 +7343,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7362,20 +7363,18 @@
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -7388,7 +7387,7 @@
         <v>40</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>40</v>
@@ -7424,7 +7423,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>204</v>
+        <v>65</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7436,16 +7435,16 @@
         <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>40</v>
@@ -7453,18 +7452,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7473,18 +7472,20 @@
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7521,48 +7522,48 @@
         <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7570,13 +7571,13 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>40</v>
@@ -7585,18 +7586,20 @@
         <v>50</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>217</v>
+        <v>103</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7644,13 +7647,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7659,25 +7662,23 @@
         <v>61</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7686,10 +7687,10 @@
         <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>40</v>
@@ -7698,19 +7699,19 @@
         <v>50</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
@@ -7720,7 +7721,7 @@
         <v>40</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>40</v>
@@ -7759,36 +7760,36 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7808,19 +7809,23 @@
         <v>40</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7832,7 +7837,7 @@
         <v>40</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>40</v>
@@ -7868,7 +7873,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7880,16 +7885,16 @@
         <v>40</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>40</v>
@@ -7897,18 +7902,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
@@ -7917,19 +7922,19 @@
         <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>70</v>
+        <v>222</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7943,7 +7948,7 @@
         <v>40</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>40</v>
@@ -7967,40 +7972,40 @@
         <v>40</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>40</v>
@@ -8008,7 +8013,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8025,26 +8030,22 @@
         <v>40</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
@@ -8068,13 +8069,13 @@
         <v>40</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>40</v>
@@ -8092,7 +8093,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8107,13 +8108,13 @@
         <v>61</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>148</v>
+        <v>236</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>40</v>
@@ -8121,7 +8122,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8144,20 +8145,18 @@
         <v>50</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>40</v>
       </c>
@@ -8181,13 +8180,13 @@
         <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>40</v>
@@ -8205,7 +8204,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8220,21 +8219,21 @@
         <v>61</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>179</v>
+        <v>246</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8242,35 +8241,41 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>51</v>
+        <v>258</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>63</v>
+        <v>259</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="Q60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8314,7 +8319,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>65</v>
+        <v>257</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8326,28 +8331,28 @@
         <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>66</v>
+        <v>266</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8363,21 +8368,23 @@
         <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>70</v>
+        <v>269</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>71</v>
+        <v>270</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8401,31 +8408,31 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8437,24 +8444,24 @@
         <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>66</v>
+        <v>276</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>40</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8477,19 +8484,19 @@
         <v>50</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8538,28 +8545,28 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>40</v>
+        <v>283</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>40</v>
@@ -8567,7 +8574,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8578,7 +8585,7 @@
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>40</v>
@@ -8587,22 +8594,22 @@
         <v>40</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8651,13 +8658,13 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
@@ -8669,18 +8676,18 @@
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>189</v>
+        <v>291</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8691,31 +8698,31 @@
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>91</v>
+        <v>292</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>190</v>
+        <v>293</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>191</v>
+        <v>294</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>192</v>
+        <v>295</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8728,7 +8735,7 @@
         <v>40</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>40</v>
@@ -8764,36 +8771,36 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>195</v>
+        <v>291</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>40</v>
+        <v>297</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>61</v>
+        <v>298</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>196</v>
+        <v>299</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>197</v>
+        <v>300</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>198</v>
+        <v>301</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>199</v>
+        <v>302</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8804,30 +8811,32 @@
         <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>51</v>
+        <v>303</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>200</v>
+        <v>304</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>201</v>
+        <v>305</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>40</v>
       </c>
@@ -8839,7 +8848,7 @@
         <v>40</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>40</v>
@@ -8875,28 +8884,28 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>204</v>
+        <v>302</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>40</v>
+        <v>308</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>61</v>
+        <v>309</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>206</v>
+        <v>310</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>207</v>
+        <v>311</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>40</v>
@@ -8904,7 +8913,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>208</v>
+        <v>312</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8924,16 +8933,16 @@
         <v>40</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8984,7 +8993,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>212</v>
+        <v>65</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8996,16 +9005,16 @@
         <v>40</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>40</v>
@@ -9013,18 +9022,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>216</v>
+        <v>313</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>40</v>
@@ -9033,19 +9042,19 @@
         <v>40</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9083,48 +9092,48 @@
         <v>40</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>224</v>
+        <v>66</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>258</v>
+        <v>314</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9132,13 +9141,13 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>50</v>
@@ -9147,26 +9156,24 @@
         <v>50</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>259</v>
+        <v>125</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P68" t="s" s="2">
-        <v>264</v>
-      </c>
+      <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
         <v>40</v>
       </c>
@@ -9174,7 +9181,7 @@
         <v>40</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>40</v>
@@ -9186,13 +9193,13 @@
         <v>40</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>40</v>
+        <v>321</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>40</v>
@@ -9210,7 +9217,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>258</v>
+        <v>322</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9225,21 +9232,21 @@
         <v>61</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>267</v>
+        <v>325</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>268</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>269</v>
+        <v>326</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9250,7 +9257,7 @@
         <v>41</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>40</v>
@@ -9262,20 +9269,18 @@
         <v>50</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>270</v>
+        <v>327</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>40</v>
       </c>
@@ -9287,7 +9292,7 @@
         <v>40</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>40</v>
@@ -9299,13 +9304,13 @@
         <v>40</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>40</v>
@@ -9323,13 +9328,13 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>269</v>
+        <v>333</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>40</v>
@@ -9338,21 +9343,21 @@
         <v>61</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>276</v>
+        <v>334</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>278</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>279</v>
+        <v>335</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9360,13 +9365,13 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>40</v>
@@ -9378,16 +9383,16 @@
         <v>51</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>281</v>
+        <v>337</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>282</v>
+        <v>338</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>283</v>
+        <v>339</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>40</v>
@@ -9400,7 +9405,7 @@
         <v>40</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>40</v>
+        <v>340</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>40</v>
@@ -9436,7 +9441,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9445,27 +9450,27 @@
         <v>49</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>285</v>
+        <v>342</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>286</v>
+        <v>343</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9476,32 +9481,28 @@
         <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>42</v>
+        <v>345</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>288</v>
+        <v>346</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>40</v>
       </c>
@@ -9513,7 +9514,7 @@
         <v>40</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>40</v>
+        <v>348</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>40</v>
@@ -9549,7 +9550,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>287</v>
+        <v>349</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9564,13 +9565,13 @@
         <v>61</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>286</v>
+        <v>352</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>40</v>
@@ -9578,18 +9579,18 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>40</v>
+        <v>354</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>50</v>
@@ -9598,23 +9599,19 @@
         <v>40</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>293</v>
+        <v>51</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>40</v>
       </c>
@@ -9626,7 +9623,7 @@
         <v>40</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>40</v>
@@ -9662,72 +9659,70 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>298</v>
+        <v>40</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>299</v>
+        <v>61</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>300</v>
+        <v>359</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>301</v>
+        <v>360</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>302</v>
+        <v>361</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>40</v>
+        <v>363</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J73" t="s" s="2">
-        <v>304</v>
+        <v>51</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>305</v>
+        <v>364</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>306</v>
+        <v>365</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>40</v>
       </c>
@@ -9739,7 +9734,7 @@
         <v>40</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>40</v>
+        <v>367</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>40</v>
@@ -9775,40 +9770,40 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>303</v>
+        <v>368</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>309</v>
+        <v>40</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>310</v>
+        <v>61</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>311</v>
+        <v>369</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>312</v>
+        <v>370</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>313</v>
+        <v>371</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>40</v>
+        <v>372</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9818,22 +9813,22 @@
         <v>49</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>63</v>
+        <v>373</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>64</v>
+        <v>374</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9860,13 +9855,13 @@
         <v>40</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>40</v>
+        <v>375</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>40</v>
+        <v>376</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>40</v>
@@ -9884,7 +9879,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>65</v>
+        <v>377</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9896,57 +9891,55 @@
         <v>40</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>40</v>
+        <v>378</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>40</v>
+        <v>379</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>66</v>
+        <v>380</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>314</v>
+        <v>381</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>68</v>
+        <v>382</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>70</v>
+        <v>383</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>40</v>
@@ -9959,7 +9952,7 @@
         <v>40</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>40</v>
+        <v>385</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>40</v>
@@ -9983,48 +9976,48 @@
         <v>40</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>76</v>
+        <v>386</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>40</v>
+        <v>387</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>40</v>
+        <v>388</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>66</v>
+        <v>389</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>315</v>
+        <v>390</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10038,29 +10031,27 @@
         <v>49</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>316</v>
+        <v>391</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>317</v>
+        <v>392</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>40</v>
       </c>
@@ -10072,7 +10063,7 @@
         <v>40</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>40</v>
@@ -10084,13 +10075,13 @@
         <v>40</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>321</v>
+        <v>40</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>322</v>
+        <v>40</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>40</v>
@@ -10108,7 +10099,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>323</v>
+        <v>394</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -10123,13 +10114,13 @@
         <v>61</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>324</v>
+        <v>395</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>325</v>
+        <v>396</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>326</v>
+        <v>397</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>40</v>
@@ -10137,7 +10128,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>327</v>
+        <v>398</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10160,18 +10151,18 @@
         <v>50</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>328</v>
+        <v>399</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>40</v>
       </c>
@@ -10183,7 +10174,7 @@
         <v>40</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>331</v>
+        <v>402</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>40</v>
@@ -10195,13 +10186,13 @@
         <v>40</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>332</v>
+        <v>40</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>333</v>
+        <v>40</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>40</v>
@@ -10219,7 +10210,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>334</v>
+        <v>403</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10234,13 +10225,13 @@
         <v>61</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>335</v>
+        <v>404</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>326</v>
+        <v>405</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>40</v>
@@ -10248,7 +10239,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>336</v>
+        <v>406</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10271,19 +10262,17 @@
         <v>50</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>51</v>
+        <v>239</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>337</v>
+        <v>407</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>40</v>
@@ -10296,7 +10285,7 @@
         <v>40</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>341</v>
+        <v>40</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>40</v>
@@ -10332,7 +10321,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>342</v>
+        <v>406</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10347,21 +10336,21 @@
         <v>61</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>343</v>
+        <v>265</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10372,28 +10361,32 @@
         <v>41</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>346</v>
+        <v>42</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>51</v>
+        <v>412</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>40</v>
       </c>
@@ -10405,7 +10398,7 @@
         <v>40</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>349</v>
+        <v>40</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>40</v>
@@ -10441,7 +10434,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>350</v>
+        <v>411</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10456,25 +10449,25 @@
         <v>61</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>353</v>
+        <v>417</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>354</v>
+        <v>418</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10484,22 +10477,22 @@
         <v>49</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>356</v>
+        <v>63</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>357</v>
+        <v>64</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10514,7 +10507,7 @@
         <v>40</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>358</v>
+        <v>40</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>40</v>
@@ -10550,7 +10543,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>359</v>
+        <v>65</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10562,16 +10555,16 @@
         <v>40</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>360</v>
+        <v>40</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>361</v>
+        <v>40</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>362</v>
+        <v>66</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>40</v>
@@ -10579,18 +10572,18 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>364</v>
+        <v>68</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>40</v>
@@ -10599,19 +10592,19 @@
         <v>40</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>365</v>
+        <v>70</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>366</v>
+        <v>71</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>367</v>
+        <v>72</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10625,7 +10618,7 @@
         <v>40</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>368</v>
+        <v>40</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>40</v>
@@ -10661,68 +10654,72 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>369</v>
+        <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>370</v>
+        <v>40</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>371</v>
+        <v>66</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H82" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>40</v>
       </c>
@@ -10746,13 +10743,13 @@
         <v>40</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>376</v>
+        <v>40</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>377</v>
+        <v>40</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>40</v>
@@ -10770,40 +10767,40 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>379</v>
+        <v>40</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>380</v>
+        <v>40</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>381</v>
+        <v>148</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>383</v>
+        <v>40</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10813,25 +10810,27 @@
         <v>49</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+      <c r="N83" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>40</v>
       </c>
@@ -10843,7 +10842,7 @@
         <v>40</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>386</v>
+        <v>40</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>40</v>
@@ -10855,13 +10854,13 @@
         <v>40</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>40</v>
+        <v>429</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>40</v>
+        <v>430</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>40</v>
@@ -10879,7 +10878,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10894,21 +10893,21 @@
         <v>61</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>388</v>
+        <v>40</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>389</v>
+        <v>40</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10922,27 +10921,27 @@
         <v>49</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>51</v>
+        <v>433</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>40</v>
       </c>
@@ -10990,7 +10989,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -11005,13 +11004,13 @@
         <v>61</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>396</v>
+        <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>40</v>
@@ -11019,7 +11018,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>399</v>
+        <v>439</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11030,7 +11029,7 @@
         <v>41</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>40</v>
@@ -11039,20 +11038,20 @@
         <v>40</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>209</v>
+        <v>292</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>402</v>
+        <v>442</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>40</v>
@@ -11065,7 +11064,7 @@
         <v>40</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>403</v>
+        <v>40</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>40</v>
@@ -11101,13 +11100,13 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>40</v>
@@ -11116,13 +11115,13 @@
         <v>61</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>405</v>
+        <v>443</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>406</v>
+        <v>444</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>40</v>
@@ -11130,7 +11129,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>407</v>
+        <v>445</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11150,20 +11149,20 @@
         <v>40</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>410</v>
+        <v>448</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -11212,7 +11211,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>407</v>
+        <v>445</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -11227,13 +11226,13 @@
         <v>61</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>266</v>
+        <v>449</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>40</v>
@@ -11241,7 +11240,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11264,19 +11263,17 @@
         <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>417</v>
+        <v>455</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>40</v>
@@ -11325,7 +11322,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11346,902 +11343,14 @@
         <v>40</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>418</v>
+        <v>66</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AM95" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM95">
+  <autoFilter ref="A1:AM87">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12251,7 +11360,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI94">
+  <conditionalFormatting sqref="A2:AI86">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-CARIN-BB-Organization.xlsx
+++ b/StructureDefinition-CARIN-BB-Organization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$88</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3064" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="459">
   <si>
     <t>Path</t>
   </si>
@@ -547,249 +547,12 @@
     <t>NPI</t>
   </si>
   <si>
-    <t>National Provider Identifier</t>
+    <t>National Provider Identifier (NPI)</t>
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
-  &lt;type&gt;
-    &lt;coding&gt;
-      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/IdentifierTypeCS"/&gt;
-      &lt;code value="npi"/&gt;
-    &lt;/coding&gt;
-  &lt;/type&gt;
   &lt;system value="http://hl7.org/fhir/sid/us-npi"/&gt;
 &lt;/valueIdentifier&gt;</t>
-  </si>
-  <si>
-    <t>Organization.identifier.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Organization.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>./IdentifierType</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>Organization.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>Organization.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>Organization.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>./IdentifierIssuingAuthority</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
     <t>CLIA</t>
@@ -803,7 +566,7 @@
 &lt;/valueIdentifier&gt;</t>
   </si>
   <si>
-    <t>TIN</t>
+    <t>tax</t>
   </si>
   <si>
     <t>Tax ID Number</t>
@@ -819,7 +582,254 @@
 &lt;/valueIdentifier&gt;</t>
   </si>
   <si>
+    <t>Organization.identifier.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Organization.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Organization.identifier.type.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier.type.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier.type.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Organization.identifier.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Organization.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
     <t>urn:oid:2.16.840.1.113883.4.4</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Organization.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Organization.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Organization.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>npi</t>
+  </si>
+  <si>
+    <t>National Provider Identifier</t>
+  </si>
+  <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;type&gt;
+    &lt;coding&gt;
+      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/IdentifierTypeCS"/&gt;
+      &lt;code value="npi"/&gt;
+    &lt;/coding&gt;
+  &lt;/type&gt;
+&lt;/valueIdentifier&gt;</t>
   </si>
   <si>
     <t>payerid</t>
@@ -1604,7 +1614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM87"/>
+  <dimension ref="A1:AM88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3880,11 +3890,13 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3896,25 +3908,27 @@
         <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3923,7 +3937,7 @@
         <v>40</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>40</v>
@@ -3962,40 +3976,42 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="C22" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4005,27 +4021,29 @@
         <v>42</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
@@ -4034,7 +4052,7 @@
         <v>40</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>40</v>
@@ -4061,19 +4079,19 @@
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -4082,27 +4100,27 @@
         <v>42</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4119,26 +4137,22 @@
         <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
       </c>
@@ -4162,13 +4176,13 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
@@ -4186,7 +4200,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4198,16 +4212,16 @@
         <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>182</v>
+        <v>66</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
@@ -4215,18 +4229,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
@@ -4235,23 +4249,21 @@
         <v>40</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>184</v>
+        <v>69</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -4275,52 +4287,52 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>182</v>
+        <v>66</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
@@ -4328,7 +4340,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4345,22 +4357,26 @@
         <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
       </c>
@@ -4384,13 +4400,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -4408,7 +4424,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>65</v>
+        <v>187</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4420,16 +4436,16 @@
         <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -4437,18 +4453,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -4457,21 +4473,23 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
@@ -4495,60 +4513,60 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4556,35 +4574,31 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>196</v>
+        <v>63</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4632,28 +4646,28 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>202</v>
+        <v>66</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
@@ -4661,18 +4675,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -4681,23 +4695,21 @@
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>204</v>
+        <v>70</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4733,48 +4745,48 @@
         <v>40</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4782,13 +4794,13 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>40</v>
@@ -4797,19 +4809,19 @@
         <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4822,7 +4834,7 @@
         <v>40</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>40</v>
@@ -4858,13 +4870,13 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
@@ -4873,13 +4885,13 @@
         <v>61</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4887,7 +4899,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4913,15 +4925,17 @@
         <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4933,7 +4947,7 @@
         <v>40</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>40</v>
@@ -4969,7 +4983,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4984,13 +4998,13 @@
         <v>61</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4998,7 +5012,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5021,16 +5035,20 @@
         <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>231</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
       </c>
@@ -5039,10 +5057,10 @@
         <v>40</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>40</v>
@@ -5078,7 +5096,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -5093,13 +5111,13 @@
         <v>61</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -5107,7 +5125,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5130,16 +5148,16 @@
         <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5153,7 +5171,7 @@
         <v>40</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>40</v>
@@ -5189,7 +5207,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5204,25 +5222,23 @@
         <v>61</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>40</v>
       </c>
@@ -5234,7 +5250,7 @@
         <v>49</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>40</v>
@@ -5243,18 +5259,16 @@
         <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="M33" s="2"/>
-      <c r="N33" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
@@ -5263,7 +5277,7 @@
         <v>40</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>40</v>
@@ -5302,40 +5316,38 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>66</v>
+        <v>242</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>40</v>
       </c>
@@ -5344,10 +5356,10 @@
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>40</v>
@@ -5356,20 +5368,18 @@
         <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>158</v>
+        <v>246</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>160</v>
+        <v>248</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
       </c>
@@ -5378,7 +5388,7 @@
         <v>40</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>40</v>
@@ -5417,38 +5427,40 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>66</v>
+        <v>251</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>166</v>
+        <v>253</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5457,28 +5469,32 @@
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5487,7 +5503,7 @@
         <v>40</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>40</v>
@@ -5526,47 +5542,47 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -5578,17 +5594,15 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5625,31 +5639,31 @@
         <v>40</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>40</v>
@@ -5666,43 +5680,41 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5726,52 +5738,52 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>182</v>
+        <v>66</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5779,7 +5791,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5796,25 +5808,25 @@
         <v>40</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5839,13 +5851,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5863,7 +5875,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5881,10 +5893,10 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5892,7 +5904,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5912,19 +5924,23 @@
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5948,13 +5964,13 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5972,7 +5988,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5984,16 +6000,16 @@
         <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
@@ -6001,18 +6017,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -6024,17 +6040,15 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -6071,31 +6085,31 @@
         <v>40</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>40</v>
@@ -6110,45 +6124,43 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>40</v>
       </c>
@@ -6184,19 +6196,19 @@
         <v>40</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6208,24 +6220,24 @@
         <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" hidden="true">
-      <c r="A42" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6233,13 +6245,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>40</v>
@@ -6248,19 +6260,19 @@
         <v>50</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -6309,13 +6321,13 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>40</v>
@@ -6327,10 +6339,10 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -6338,7 +6350,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6361,19 +6373,19 @@
         <v>50</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6383,10 +6395,10 @@
         <v>40</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>40</v>
@@ -6422,7 +6434,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6437,13 +6449,13 @@
         <v>61</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6451,7 +6463,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6474,18 +6486,20 @@
         <v>50</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6497,7 +6511,7 @@
         <v>40</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>40</v>
@@ -6533,7 +6547,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6548,13 +6562,13 @@
         <v>61</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
@@ -6562,7 +6576,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6585,15 +6599,17 @@
         <v>50</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K45" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6606,7 +6622,7 @@
         <v>40</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>40</v>
@@ -6642,7 +6658,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6657,13 +6673,13 @@
         <v>61</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6671,7 +6687,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6694,17 +6710,15 @@
         <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>242</v>
-      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6753,7 +6767,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6768,25 +6782,23 @@
         <v>61</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AL46" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>254</v>
-      </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6795,10 +6807,10 @@
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>40</v>
@@ -6807,20 +6819,18 @@
         <v>50</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>158</v>
+        <v>246</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>160</v>
+        <v>248</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6829,7 +6839,7 @@
         <v>40</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>256</v>
+        <v>40</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>40</v>
@@ -6868,38 +6878,40 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>66</v>
+        <v>251</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>166</v>
+        <v>253</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6908,28 +6920,32 @@
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>63</v>
+        <v>258</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6938,7 +6954,7 @@
         <v>40</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>40</v>
@@ -6977,47 +6993,47 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>40</v>
@@ -7029,17 +7045,15 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -7076,31 +7090,31 @@
         <v>40</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>40</v>
@@ -7117,43 +7131,41 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>40</v>
       </c>
@@ -7177,52 +7189,52 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>182</v>
+        <v>66</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
@@ -7230,7 +7242,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7247,25 +7259,25 @@
         <v>40</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -7290,13 +7302,13 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>40</v>
@@ -7314,7 +7326,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7332,10 +7344,10 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
@@ -7343,7 +7355,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7363,19 +7375,23 @@
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7399,13 +7415,13 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>40</v>
@@ -7423,7 +7439,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7435,16 +7451,16 @@
         <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>40</v>
@@ -7452,18 +7468,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7475,17 +7491,15 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7522,31 +7536,31 @@
         <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>40</v>
@@ -7561,45 +7575,43 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7635,19 +7647,19 @@
         <v>40</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7659,24 +7671,24 @@
         <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7684,13 +7696,13 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>40</v>
@@ -7699,19 +7711,19 @@
         <v>50</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
@@ -7760,13 +7772,13 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>40</v>
@@ -7778,10 +7790,10 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>40</v>
@@ -7789,7 +7801,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7812,19 +7824,19 @@
         <v>50</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7837,7 +7849,7 @@
         <v>40</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>40</v>
@@ -7873,7 +7885,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7888,13 +7900,13 @@
         <v>61</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>40</v>
@@ -7902,7 +7914,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7925,18 +7937,20 @@
         <v>50</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7948,7 +7962,7 @@
         <v>40</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>40</v>
@@ -7984,7 +7998,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7999,13 +8013,13 @@
         <v>61</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>40</v>
@@ -8013,7 +8027,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8036,15 +8050,17 @@
         <v>50</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K58" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -8057,7 +8073,7 @@
         <v>40</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>40</v>
@@ -8093,7 +8109,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8108,13 +8124,13 @@
         <v>61</v>
       </c>
       <c r="AJ58" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AL58" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>40</v>
@@ -8122,7 +8138,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8145,17 +8161,15 @@
         <v>50</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>242</v>
-      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -8204,7 +8218,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8219,21 +8233,21 @@
         <v>61</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8241,41 +8255,37 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P60" t="s" s="2">
-        <v>263</v>
-      </c>
+      <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8319,7 +8329,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8334,21 +8344,21 @@
         <v>61</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>267</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8356,39 +8366,41 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="Q61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8408,13 +8420,13 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>273</v>
+        <v>40</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>274</v>
+        <v>40</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>40</v>
@@ -8432,13 +8444,13 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
@@ -8447,21 +8459,21 @@
         <v>61</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>66</v>
+        <v>267</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8469,13 +8481,13 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
@@ -8484,19 +8496,19 @@
         <v>50</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8521,13 +8533,13 @@
         <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>40</v>
@@ -8545,36 +8557,36 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>283</v>
+        <v>66</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>40</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8582,34 +8594,34 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8658,36 +8670,36 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8701,7 +8713,7 @@
         <v>42</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>40</v>
@@ -8710,19 +8722,19 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8771,7 +8783,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8780,19 +8792,19 @@
         <v>42</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>298</v>
+        <v>61</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>40</v>
@@ -8800,7 +8812,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8823,19 +8835,19 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8884,7 +8896,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8893,27 +8905,27 @@
         <v>42</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>66</v>
+        <v>302</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8924,10 +8936,10 @@
         <v>41</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>40</v>
@@ -8936,16 +8948,20 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>51</v>
+        <v>306</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>40</v>
       </c>
@@ -8993,28 +9009,28 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>65</v>
+        <v>305</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>40</v>
+        <v>311</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>40</v>
+        <v>312</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>66</v>
+        <v>314</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>40</v>
@@ -9022,18 +9038,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>40</v>
@@ -9045,17 +9061,15 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>40</v>
@@ -9092,31 +9106,31 @@
         <v>40</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>40</v>
@@ -9133,43 +9147,41 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>315</v>
+        <v>70</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>40</v>
       </c>
@@ -9181,7 +9193,7 @@
         <v>40</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>40</v>
@@ -9193,52 +9205,52 @@
         <v>40</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>321</v>
+        <v>40</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>322</v>
+        <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>324</v>
+        <v>40</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>325</v>
+        <v>66</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>40</v>
@@ -9246,7 +9258,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9263,7 +9275,7 @@
         <v>40</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>50</v>
@@ -9272,15 +9284,17 @@
         <v>125</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>40</v>
       </c>
@@ -9292,7 +9306,7 @@
         <v>40</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>40</v>
@@ -9304,13 +9318,13 @@
         <v>40</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>40</v>
@@ -9328,7 +9342,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9343,13 +9357,13 @@
         <v>61</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>40</v>
+        <v>326</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>40</v>
@@ -9357,7 +9371,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9380,20 +9394,18 @@
         <v>50</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>40</v>
       </c>
@@ -9405,7 +9417,7 @@
         <v>40</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>40</v>
@@ -9417,13 +9429,13 @@
         <v>40</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>40</v>
@@ -9441,7 +9453,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9459,18 +9471,18 @@
         <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9481,10 +9493,10 @@
         <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>345</v>
+        <v>49</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>40</v>
@@ -9496,13 +9508,17 @@
         <v>51</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>40</v>
       </c>
@@ -9514,7 +9530,7 @@
         <v>40</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>40</v>
@@ -9550,13 +9566,13 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>40</v>
@@ -9565,13 +9581,13 @@
         <v>61</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>40</v>
@@ -9579,18 +9595,18 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>354</v>
+        <v>40</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>49</v>
+        <v>348</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>50</v>
@@ -9605,10 +9621,10 @@
         <v>51</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9623,7 +9639,7 @@
         <v>40</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>40</v>
@@ -9659,13 +9675,13 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>40</v>
@@ -9674,25 +9690,25 @@
         <v>61</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9702,7 +9718,7 @@
         <v>49</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>40</v>
@@ -9714,14 +9730,12 @@
         <v>51</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>40</v>
@@ -9734,7 +9748,7 @@
         <v>40</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>40</v>
@@ -9770,7 +9784,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9785,25 +9799,25 @@
         <v>61</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>40</v>
+        <v>362</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9813,7 +9827,7 @@
         <v>49</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>40</v>
@@ -9825,12 +9839,14 @@
         <v>51</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>40</v>
@@ -9843,7 +9859,7 @@
         <v>40</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>40</v>
+        <v>370</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>40</v>
@@ -9855,13 +9871,13 @@
         <v>40</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>375</v>
+        <v>40</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>376</v>
+        <v>40</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>40</v>
@@ -9879,7 +9895,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9894,13 +9910,13 @@
         <v>61</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>378</v>
+        <v>40</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>40</v>
@@ -9908,11 +9924,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9934,10 +9950,10 @@
         <v>51</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9952,7 +9968,7 @@
         <v>40</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>385</v>
+        <v>40</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>40</v>
@@ -9964,13 +9980,13 @@
         <v>40</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>40</v>
+        <v>378</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>40</v>
+        <v>379</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>40</v>
@@ -9988,7 +10004,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -10003,13 +10019,13 @@
         <v>61</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>40</v>
@@ -10017,11 +10033,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>40</v>
+        <v>385</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10043,14 +10059,12 @@
         <v>51</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>40</v>
@@ -10063,7 +10077,7 @@
         <v>40</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>40</v>
+        <v>388</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>40</v>
@@ -10099,7 +10113,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -10114,21 +10128,21 @@
         <v>61</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10142,7 +10156,7 @@
         <v>49</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>40</v>
@@ -10151,18 +10165,18 @@
         <v>50</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>231</v>
+        <v>51</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>40</v>
       </c>
@@ -10174,7 +10188,7 @@
         <v>40</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>402</v>
+        <v>40</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>40</v>
@@ -10210,7 +10224,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10225,13 +10239,13 @@
         <v>61</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>235</v>
+        <v>398</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>40</v>
@@ -10239,7 +10253,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10262,17 +10276,17 @@
         <v>50</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>40</v>
@@ -10285,7 +10299,7 @@
         <v>40</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>40</v>
+        <v>405</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>40</v>
@@ -10336,13 +10350,13 @@
         <v>61</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>66</v>
+        <v>242</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>265</v>
+        <v>407</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>40</v>
@@ -10350,7 +10364,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10361,7 +10375,7 @@
         <v>41</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>40</v>
@@ -10370,22 +10384,20 @@
         <v>40</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>40</v>
@@ -10434,13 +10446,13 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>40</v>
@@ -10449,13 +10461,13 @@
         <v>61</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>40</v>
@@ -10463,7 +10475,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10474,7 +10486,7 @@
         <v>41</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>40</v>
@@ -10486,16 +10498,20 @@
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>51</v>
+        <v>415</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>63</v>
+        <v>416</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>40</v>
       </c>
@@ -10543,19 +10559,19 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>65</v>
+        <v>414</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>40</v>
@@ -10564,7 +10580,7 @@
         <v>40</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>66</v>
+        <v>420</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>40</v>
@@ -10572,18 +10588,18 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>40</v>
@@ -10595,17 +10611,15 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>40</v>
@@ -10654,19 +10668,19 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>40</v>
@@ -10683,11 +10697,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>421</v>
+        <v>68</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10700,26 +10714,24 @@
         <v>40</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>69</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>422</v>
+        <v>70</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>423</v>
+        <v>71</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="N82" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>40</v>
       </c>
@@ -10767,7 +10779,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>424</v>
+        <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10788,7 +10800,7 @@
         <v>40</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>40</v>
@@ -10796,40 +10808,42 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>40</v>
+        <v>424</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>184</v>
+        <v>69</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M83" s="2"/>
+      <c r="M83" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N83" t="s" s="2">
-        <v>428</v>
+        <v>155</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>40</v>
@@ -10854,13 +10868,13 @@
         <v>40</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>429</v>
+        <v>40</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>430</v>
+        <v>40</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>40</v>
@@ -10878,19 +10892,19 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>40</v>
@@ -10899,7 +10913,7 @@
         <v>40</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>431</v>
+        <v>148</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>40</v>
@@ -10907,7 +10921,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10930,17 +10944,17 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>433</v>
+        <v>190</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>40</v>
@@ -10965,13 +10979,13 @@
         <v>40</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>40</v>
+        <v>432</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>40</v>
+        <v>433</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>40</v>
@@ -10989,7 +11003,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -11007,10 +11021,10 @@
         <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>437</v>
+        <v>40</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>40</v>
@@ -11018,7 +11032,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11029,7 +11043,7 @@
         <v>41</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>40</v>
@@ -11041,17 +11055,17 @@
         <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>292</v>
+        <v>436</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>40</v>
@@ -11100,13 +11114,13 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>40</v>
@@ -11118,10 +11132,10 @@
         <v>40</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>40</v>
@@ -11129,7 +11143,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11140,7 +11154,7 @@
         <v>41</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>40</v>
@@ -11152,17 +11166,17 @@
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -11211,13 +11225,13 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>40</v>
@@ -11229,10 +11243,10 @@
         <v>40</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>40</v>
@@ -11240,7 +11254,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11251,7 +11265,7 @@
         <v>41</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>40</v>
@@ -11263,17 +11277,17 @@
         <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>452</v>
+        <v>306</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>40</v>
@@ -11322,13 +11336,13 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>40</v>
@@ -11340,17 +11354,128 @@
         <v>40</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>40</v>
+        <v>452</v>
       </c>
       <c r="AL87" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="AM87" t="s" s="2">
+      <c r="AM88" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM87">
+  <autoFilter ref="A1:AM88">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11360,7 +11485,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI86">
+  <conditionalFormatting sqref="A2:AI87">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-CARIN-BB-Organization.xlsx
+++ b/StructureDefinition-CARIN-BB-Organization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$75</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="456">
   <si>
     <t>Path</t>
   </si>
@@ -814,22 +814,6 @@
   </si>
   <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>npi</t>
-  </si>
-  <si>
-    <t>National Provider Identifier</t>
-  </si>
-  <si>
-    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
-  &lt;type&gt;
-    &lt;coding&gt;
-      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/IdentifierTypeCS"/&gt;
-      &lt;code value="npi"/&gt;
-    &lt;/coding&gt;
-  &lt;/type&gt;
-&lt;/valueIdentifier&gt;</t>
   </si>
   <si>
     <t>payerid</t>
@@ -1614,7 +1598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM88"/>
+  <dimension ref="A1:AM75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6907,54 +6891,54 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B48" t="s" s="2">
         <v>257</v>
       </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>50</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>161</v>
+        <v>261</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="Q48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>40</v>
@@ -6993,36 +6977,36 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>66</v>
+        <v>264</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>165</v>
+        <v>265</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>166</v>
+        <v>266</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>167</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>177</v>
+        <v>268</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7033,7 +7017,7 @@
         <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>40</v>
@@ -7042,19 +7026,23 @@
         <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>63</v>
+        <v>269</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
       </c>
@@ -7078,13 +7066,13 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>40</v>
@@ -7102,70 +7090,72 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>65</v>
+        <v>268</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>66</v>
+        <v>276</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>40</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>178</v>
+        <v>278</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>70</v>
+        <v>279</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>71</v>
+        <v>280</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
       </c>
@@ -7201,40 +7191,40 @@
         <v>40</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>40</v>
+        <v>283</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>40</v>
+        <v>284</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>66</v>
+        <v>285</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
@@ -7242,7 +7232,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7253,31 +7243,31 @@
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>180</v>
+        <v>287</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>181</v>
+        <v>288</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -7302,13 +7292,13 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>40</v>
@@ -7326,13 +7316,13 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>187</v>
+        <v>286</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
@@ -7344,18 +7334,18 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>188</v>
+        <v>285</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>189</v>
+        <v>291</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7366,31 +7356,31 @@
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>190</v>
+        <v>292</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>191</v>
+        <v>293</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>192</v>
+        <v>294</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>194</v>
+        <v>296</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -7415,13 +7405,13 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>40</v>
@@ -7439,36 +7429,36 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>40</v>
+        <v>297</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>61</v>
+        <v>298</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>198</v>
+        <v>300</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>188</v>
+        <v>301</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>199</v>
+        <v>302</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7479,10 +7469,10 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>40</v>
@@ -7491,16 +7481,20 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>51</v>
+        <v>303</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>63</v>
+        <v>304</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7548,28 +7542,28 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>65</v>
+        <v>302</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>40</v>
+        <v>308</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>40</v>
+        <v>309</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>66</v>
+        <v>311</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>40</v>
@@ -7577,18 +7571,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>200</v>
+        <v>312</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
@@ -7600,17 +7594,15 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7647,31 +7639,31 @@
         <v>40</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>40</v>
@@ -7688,11 +7680,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>201</v>
+        <v>313</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7708,23 +7700,21 @@
         <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>202</v>
+        <v>70</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>203</v>
+        <v>71</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7760,19 +7750,19 @@
         <v>40</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7784,16 +7774,16 @@
         <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>208</v>
+        <v>66</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>40</v>
@@ -7801,7 +7791,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>209</v>
+        <v>314</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7818,25 +7808,25 @@
         <v>40</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>212</v>
+        <v>317</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>213</v>
+        <v>318</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7849,7 +7839,7 @@
         <v>40</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>40</v>
@@ -7861,13 +7851,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>40</v>
+        <v>321</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -7885,7 +7875,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>214</v>
+        <v>322</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7900,13 +7890,13 @@
         <v>61</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>40</v>
+        <v>323</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>215</v>
+        <v>324</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>216</v>
+        <v>325</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>40</v>
@@ -7914,7 +7904,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>217</v>
+        <v>326</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7937,20 +7927,18 @@
         <v>50</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>218</v>
+        <v>327</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7962,7 +7950,7 @@
         <v>40</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>223</v>
+        <v>330</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>40</v>
@@ -7974,13 +7962,13 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>40</v>
+        <v>332</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>40</v>
@@ -7998,7 +7986,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>224</v>
+        <v>333</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -8013,13 +8001,13 @@
         <v>61</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>226</v>
+        <v>334</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>227</v>
+        <v>325</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>40</v>
@@ -8027,7 +8015,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>228</v>
+        <v>335</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8053,15 +8041,17 @@
         <v>51</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>229</v>
+        <v>336</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
@@ -8073,7 +8063,7 @@
         <v>40</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>232</v>
+        <v>340</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>40</v>
@@ -8109,7 +8099,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>233</v>
+        <v>341</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8124,21 +8114,21 @@
         <v>61</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>235</v>
+        <v>342</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>236</v>
+        <v>343</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>237</v>
+        <v>344</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8149,10 +8139,10 @@
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>49</v>
+        <v>345</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>40</v>
@@ -8161,13 +8151,13 @@
         <v>50</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>238</v>
+        <v>51</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>239</v>
+        <v>346</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>240</v>
+        <v>347</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8182,7 +8172,7 @@
         <v>40</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>40</v>
+        <v>348</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>40</v>
@@ -8218,13 +8208,13 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>241</v>
+        <v>349</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>40</v>
@@ -8233,25 +8223,25 @@
         <v>61</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>243</v>
+        <v>351</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>244</v>
+        <v>352</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>245</v>
+        <v>353</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>40</v>
+        <v>354</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8261,7 +8251,7 @@
         <v>49</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>40</v>
@@ -8270,17 +8260,15 @@
         <v>50</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>246</v>
+        <v>51</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>247</v>
+        <v>355</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8293,7 +8281,7 @@
         <v>40</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>40</v>
@@ -8329,7 +8317,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>250</v>
+        <v>358</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8344,63 +8332,59 @@
         <v>61</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>251</v>
+        <v>359</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>252</v>
+        <v>360</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>253</v>
+        <v>361</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>260</v>
+        <v>362</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>40</v>
+        <v>363</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>261</v>
+        <v>51</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>262</v>
+        <v>364</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>263</v>
+        <v>365</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P61" t="s" s="2">
-        <v>266</v>
-      </c>
+      <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8408,7 +8392,7 @@
         <v>40</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>40</v>
+        <v>367</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>40</v>
@@ -8444,7 +8428,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>260</v>
+        <v>368</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8459,35 +8443,35 @@
         <v>61</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>267</v>
+        <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>268</v>
+        <v>369</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>269</v>
+        <v>370</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>270</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>271</v>
+        <v>371</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>40</v>
+        <v>372</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
@@ -8496,20 +8480,16 @@
         <v>50</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>272</v>
+        <v>373</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
       </c>
@@ -8533,13 +8513,13 @@
         <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>276</v>
+        <v>375</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>277</v>
+        <v>376</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>40</v>
@@ -8557,13 +8537,13 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>271</v>
+        <v>377</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
@@ -8572,29 +8552,29 @@
         <v>61</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>66</v>
+        <v>378</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>278</v>
+        <v>379</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>279</v>
+        <v>380</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>280</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>281</v>
+        <v>381</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>40</v>
+        <v>382</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>49</v>
@@ -8612,17 +8592,13 @@
         <v>51</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>282</v>
+        <v>383</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
       </c>
@@ -8634,7 +8610,7 @@
         <v>40</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>40</v>
+        <v>385</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>40</v>
@@ -8670,7 +8646,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>281</v>
+        <v>386</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8679,27 +8655,27 @@
         <v>49</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>286</v>
+        <v>387</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>287</v>
+        <v>388</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>288</v>
+        <v>389</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>289</v>
+        <v>390</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8710,32 +8686,30 @@
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>290</v>
+        <v>391</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>291</v>
+        <v>392</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
       </c>
@@ -8783,13 +8757,13 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>289</v>
+        <v>394</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>40</v>
@@ -8798,21 +8772,21 @@
         <v>61</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>40</v>
+        <v>395</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>40</v>
+        <v>396</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>288</v>
+        <v>397</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>294</v>
+        <v>398</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8823,31 +8797,29 @@
         <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J65" t="s" s="2">
-        <v>295</v>
+        <v>238</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>296</v>
+        <v>399</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>299</v>
+        <v>401</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8860,7 +8832,7 @@
         <v>40</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>40</v>
+        <v>402</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>40</v>
@@ -8896,36 +8868,36 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>294</v>
+        <v>403</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>301</v>
+        <v>61</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>302</v>
+        <v>242</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>303</v>
+        <v>404</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>304</v>
+        <v>405</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>305</v>
+        <v>406</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8936,31 +8908,29 @@
         <v>41</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J66" t="s" s="2">
-        <v>306</v>
+        <v>246</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>307</v>
+        <v>407</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>310</v>
+        <v>409</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -9009,28 +8979,28 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>305</v>
+        <v>406</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>311</v>
+        <v>40</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>312</v>
+        <v>61</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>66</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>314</v>
+        <v>410</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>40</v>
@@ -9038,7 +9008,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>315</v>
+        <v>411</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9049,7 +9019,7 @@
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>40</v>
@@ -9061,16 +9031,20 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>51</v>
+        <v>412</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>63</v>
+        <v>413</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>40</v>
       </c>
@@ -9118,19 +9092,19 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>65</v>
+        <v>411</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>40</v>
@@ -9139,7 +9113,7 @@
         <v>40</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>66</v>
+        <v>417</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>40</v>
@@ -9147,18 +9121,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>316</v>
+        <v>418</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>40</v>
@@ -9170,17 +9144,15 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>40</v>
@@ -9217,31 +9189,31 @@
         <v>40</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>40</v>
@@ -9258,43 +9230,41 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>317</v>
+        <v>419</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>318</v>
+        <v>70</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>319</v>
+        <v>71</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>40</v>
       </c>
@@ -9306,7 +9276,7 @@
         <v>40</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>322</v>
+        <v>40</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>40</v>
@@ -9318,13 +9288,13 @@
         <v>40</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>324</v>
+        <v>40</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>40</v>
@@ -9342,28 +9312,28 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>325</v>
+        <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>326</v>
+        <v>40</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>327</v>
+        <v>40</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>328</v>
+        <v>66</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>40</v>
@@ -9371,41 +9341,43 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>329</v>
+        <v>420</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>40</v>
+        <v>421</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>40</v>
       </c>
@@ -9417,7 +9389,7 @@
         <v>40</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>333</v>
+        <v>40</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>40</v>
@@ -9429,13 +9401,13 @@
         <v>40</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>334</v>
+        <v>40</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>335</v>
+        <v>40</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>40</v>
@@ -9453,28 +9425,28 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>336</v>
+        <v>424</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>337</v>
+        <v>40</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>328</v>
+        <v>148</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>40</v>
@@ -9482,7 +9454,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>338</v>
+        <v>425</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9502,22 +9474,20 @@
         <v>40</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>339</v>
+        <v>426</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>342</v>
+        <v>428</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>40</v>
@@ -9530,7 +9500,7 @@
         <v>40</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>343</v>
+        <v>40</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>40</v>
@@ -9542,13 +9512,13 @@
         <v>40</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>40</v>
+        <v>429</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>40</v>
+        <v>430</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>40</v>
@@ -9566,7 +9536,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>344</v>
+        <v>425</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9584,18 +9554,18 @@
         <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>345</v>
+        <v>40</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>346</v>
+        <v>431</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>347</v>
+        <v>432</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9606,28 +9576,30 @@
         <v>41</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>348</v>
+        <v>49</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>51</v>
+        <v>433</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>349</v>
+        <v>434</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>350</v>
+        <v>435</v>
       </c>
       <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>40</v>
       </c>
@@ -9639,7 +9611,7 @@
         <v>40</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>40</v>
@@ -9675,13 +9647,13 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>352</v>
+        <v>432</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>40</v>
@@ -9690,53 +9662,55 @@
         <v>61</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>353</v>
+        <v>40</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>354</v>
+        <v>437</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>355</v>
+        <v>438</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>356</v>
+        <v>439</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>357</v>
+        <v>40</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>51</v>
+        <v>292</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>358</v>
+        <v>440</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>359</v>
+        <v>441</v>
       </c>
       <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>40</v>
       </c>
@@ -9748,7 +9722,7 @@
         <v>40</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>360</v>
+        <v>40</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>40</v>
@@ -9784,13 +9758,13 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>361</v>
+        <v>439</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>40</v>
@@ -9799,13 +9773,13 @@
         <v>61</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>362</v>
+        <v>40</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>363</v>
+        <v>443</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>364</v>
+        <v>444</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>40</v>
@@ -9813,11 +9787,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>365</v>
+        <v>445</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>366</v>
+        <v>40</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9833,21 +9807,21 @@
         <v>40</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>51</v>
+        <v>303</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>367</v>
+        <v>446</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>40</v>
       </c>
@@ -9859,7 +9833,7 @@
         <v>40</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>370</v>
+        <v>40</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>40</v>
@@ -9895,7 +9869,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>371</v>
+        <v>445</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9913,50 +9887,52 @@
         <v>40</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>372</v>
+        <v>449</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>373</v>
+        <v>450</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>374</v>
+        <v>451</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>375</v>
+        <v>40</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>51</v>
+        <v>452</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>376</v>
+        <v>453</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>377</v>
+        <v>454</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>40</v>
       </c>
@@ -9980,13 +9956,13 @@
         <v>40</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>378</v>
+        <v>40</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>379</v>
+        <v>40</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>40</v>
@@ -10004,13 +9980,13 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>380</v>
+        <v>451</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>40</v>
@@ -10019,1463 +9995,20 @@
         <v>61</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>381</v>
+        <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>382</v>
+        <v>40</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>383</v>
+        <v>66</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AM88" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM88">
+  <autoFilter ref="A1:AM75">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11485,7 +10018,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI87">
+  <conditionalFormatting sqref="A2:AI74">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-CARIN-BB-Organization.xlsx
+++ b/StructureDefinition-CARIN-BB-Organization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$83</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="438">
   <si>
     <t>Path</t>
   </si>
@@ -551,10 +551,193 @@
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;type&gt;
+    &lt;coding&gt;
+      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/IdentifierTypeCS"/&gt;
+      &lt;code value="npi"/&gt;
+    &lt;/coding&gt;
+  &lt;/type&gt;
   &lt;system value="http://hl7.org/fhir/sid/us-npi"/&gt;
 &lt;/valueIdentifier&gt;</t>
   </si>
   <si>
+    <t>Organization.identifier.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Organization.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Organization.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Organization.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Organization.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Organization.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
     <t>CLIA</t>
   </si>
   <si>
@@ -562,6 +745,12 @@
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;type&gt;
+    &lt;coding&gt;
+      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/IdentifierTypeCS"/&gt;
+      &lt;code value="clia"/&gt;
+    &lt;/coding&gt;
+  &lt;/type&gt;
   &lt;system value="urn:oid:2.16.840.1.113883.4.7"/&gt;
 &lt;/valueIdentifier&gt;</t>
   </si>
@@ -582,238 +771,7 @@
 &lt;/valueIdentifier&gt;</t>
   </si>
   <si>
-    <t>Organization.identifier.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Organization.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
     <t>urn:oid:2.16.840.1.113883.4.4</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>./IdentifierType</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>Organization.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>Organization.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>Organization.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>./IdentifierIssuingAuthority</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
     <t>payerid</t>
@@ -1598,7 +1556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM75"/>
+  <dimension ref="A1:AM83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3874,13 +3832,11 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B21" t="s" s="2">
         <v>171</v>
       </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3892,27 +3848,25 @@
         <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3921,7 +3875,7 @@
         <v>40</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>40</v>
@@ -3960,42 +3914,40 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="AK21" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="AM21" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4005,29 +3957,27 @@
         <v>42</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
@@ -4036,7 +3986,7 @@
         <v>40</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>40</v>
@@ -4063,19 +4013,19 @@
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -4084,27 +4034,27 @@
         <v>42</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="AK22" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="AM22" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4121,22 +4071,26 @@
         <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
       </c>
@@ -4160,13 +4114,13 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
@@ -4184,7 +4138,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4196,58 +4150,60 @@
         <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -4271,52 +4227,52 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
@@ -4324,7 +4280,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4341,25 +4297,25 @@
         <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4372,7 +4328,7 @@
         <v>40</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>40</v>
@@ -4384,13 +4340,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -4408,7 +4364,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4423,13 +4379,13 @@
         <v>61</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -4437,7 +4393,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4460,20 +4416,18 @@
         <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
@@ -4485,7 +4439,7 @@
         <v>40</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>40</v>
@@ -4497,13 +4451,13 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -4521,7 +4475,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4536,13 +4490,13 @@
         <v>61</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -4550,7 +4504,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4570,16 +4524,16 @@
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>63</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4630,7 +4584,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>65</v>
+        <v>216</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4642,16 +4596,16 @@
         <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
@@ -4659,18 +4613,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -4679,19 +4633,19 @@
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>69</v>
+        <v>221</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>70</v>
+        <v>222</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4729,50 +4683,52 @@
         <v>40</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4781,10 +4737,10 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>40</v>
@@ -4793,19 +4749,17 @@
         <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4815,7 +4769,7 @@
         <v>40</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>40</v>
@@ -4854,7 +4808,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4863,27 +4817,27 @@
         <v>42</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4903,23 +4857,19 @@
         <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4967,7 +4917,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4979,16 +4929,16 @@
         <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>216</v>
+        <v>66</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4996,18 +4946,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
@@ -5016,23 +4966,21 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
       </c>
@@ -5041,10 +4989,10 @@
         <v>40</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>40</v>
@@ -5068,40 +5016,40 @@
         <v>40</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>226</v>
+        <v>40</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>227</v>
+        <v>66</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -5109,7 +5057,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5126,24 +5074,26 @@
         <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -5155,7 +5105,7 @@
         <v>40</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>40</v>
@@ -5167,13 +5117,13 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -5191,7 +5141,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>233</v>
+        <v>181</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5206,21 +5156,21 @@
         <v>61</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5228,13 +5178,13 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>40</v>
@@ -5243,16 +5193,20 @@
         <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
@@ -5276,13 +5230,13 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -5300,7 +5254,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5315,13 +5269,13 @@
         <v>61</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -5329,7 +5283,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5352,18 +5306,20 @@
         <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>246</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
       </c>
@@ -5375,7 +5331,7 @@
         <v>40</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>40</v>
@@ -5411,7 +5367,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5426,25 +5382,23 @@
         <v>61</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>252</v>
+        <v>201</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5453,10 +5407,10 @@
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
@@ -5465,20 +5419,18 @@
         <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5487,10 +5439,10 @@
         <v>40</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>256</v>
+        <v>40</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>40</v>
@@ -5526,36 +5478,36 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>66</v>
+        <v>209</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5575,16 +5527,16 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>63</v>
+        <v>214</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5635,7 +5587,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>65</v>
+        <v>216</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5647,16 +5599,16 @@
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5664,18 +5616,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5684,19 +5636,19 @@
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>69</v>
+        <v>221</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>70</v>
+        <v>222</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5734,50 +5686,52 @@
         <v>40</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="C38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5786,31 +5740,31 @@
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5820,7 +5774,7 @@
         <v>40</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>40</v>
@@ -5835,13 +5789,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5859,36 +5813,36 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5908,23 +5862,19 @@
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5948,13 +5898,13 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5972,7 +5922,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>197</v>
+        <v>65</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5984,16 +5934,16 @@
         <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
@@ -6001,18 +5951,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -6024,15 +5974,17 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -6069,31 +6021,31 @@
         <v>40</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>40</v>
@@ -6110,41 +6062,43 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
       </c>
@@ -6168,60 +6122,60 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6229,13 +6183,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>40</v>
@@ -6244,19 +6198,19 @@
         <v>50</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -6281,13 +6235,13 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
@@ -6305,13 +6259,13 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>40</v>
@@ -6323,10 +6277,10 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -6334,7 +6288,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6357,19 +6311,19 @@
         <v>50</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6379,10 +6333,10 @@
         <v>40</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>40</v>
@@ -6418,7 +6372,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6433,13 +6387,13 @@
         <v>61</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -6447,7 +6401,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6470,20 +6424,18 @@
         <v>50</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6495,7 +6447,7 @@
         <v>40</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>40</v>
@@ -6531,7 +6483,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6546,13 +6498,13 @@
         <v>61</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
@@ -6560,7 +6512,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6583,17 +6535,15 @@
         <v>50</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6606,7 +6556,7 @@
         <v>40</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>40</v>
@@ -6642,7 +6592,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6657,13 +6607,13 @@
         <v>61</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6671,7 +6621,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6694,15 +6644,17 @@
         <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6751,7 +6703,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6766,23 +6718,25 @@
         <v>61</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="C47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6791,10 +6745,10 @@
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>40</v>
@@ -6803,18 +6757,20 @@
         <v>50</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>248</v>
+        <v>160</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6823,7 +6779,7 @@
         <v>40</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>40</v>
@@ -6862,36 +6818,36 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>250</v>
+        <v>157</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>251</v>
+        <v>66</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>253</v>
+        <v>166</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>257</v>
+        <v>171</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6899,41 +6855,35 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>258</v>
+        <v>51</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>259</v>
+        <v>63</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P48" t="s" s="2">
-        <v>263</v>
-      </c>
+      <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6977,7 +6927,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6989,28 +6939,28 @@
         <v>40</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>266</v>
+        <v>66</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>267</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>268</v>
+        <v>172</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7026,23 +6976,21 @@
         <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>190</v>
+        <v>69</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>269</v>
+        <v>70</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>270</v>
+        <v>71</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
       </c>
@@ -7066,31 +7014,31 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>273</v>
+        <v>40</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>274</v>
+        <v>40</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -7102,24 +7050,24 @@
         <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="AM49" t="s" s="2">
-        <v>277</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>278</v>
+        <v>173</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7127,34 +7075,34 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>279</v>
+        <v>174</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>280</v>
+        <v>175</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>281</v>
+        <v>176</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>282</v>
+        <v>177</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
@@ -7179,13 +7127,13 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
@@ -7203,7 +7151,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>278</v>
+        <v>181</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7212,27 +7160,27 @@
         <v>49</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>284</v>
+        <v>148</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>285</v>
+        <v>182</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>286</v>
+        <v>183</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7240,34 +7188,34 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>287</v>
+        <v>185</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>288</v>
+        <v>186</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>289</v>
+        <v>187</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>290</v>
+        <v>188</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -7292,13 +7240,13 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>40</v>
@@ -7316,13 +7264,13 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>286</v>
+        <v>191</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
@@ -7334,18 +7282,18 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>285</v>
+        <v>182</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>291</v>
+        <v>193</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7356,31 +7304,31 @@
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>292</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>296</v>
+        <v>197</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -7393,7 +7341,7 @@
         <v>40</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>40</v>
@@ -7429,36 +7377,36 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>298</v>
+        <v>61</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7469,32 +7417,30 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>303</v>
+        <v>51</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>304</v>
+        <v>204</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7506,7 +7452,7 @@
         <v>40</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>40</v>
@@ -7542,28 +7488,28 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>302</v>
+        <v>208</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>308</v>
+        <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>309</v>
+        <v>61</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>66</v>
+        <v>209</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>40</v>
@@ -7571,7 +7517,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7591,16 +7537,16 @@
         <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>63</v>
+        <v>214</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7651,7 +7597,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>65</v>
+        <v>216</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7663,16 +7609,16 @@
         <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>40</v>
@@ -7680,18 +7626,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>313</v>
+        <v>220</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>40</v>
@@ -7700,19 +7646,19 @@
         <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>69</v>
+        <v>221</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>70</v>
+        <v>222</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7750,48 +7696,48 @@
         <v>40</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>314</v>
+        <v>239</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7799,13 +7745,13 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>50</v>
@@ -7814,24 +7760,26 @@
         <v>50</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>315</v>
+        <v>241</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>316</v>
+        <v>242</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>317</v>
+        <v>243</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="Q56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7839,7 +7787,7 @@
         <v>40</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>40</v>
@@ -7851,13 +7799,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>321</v>
+        <v>40</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -7875,7 +7823,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>322</v>
+        <v>239</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7890,21 +7838,21 @@
         <v>61</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>323</v>
+        <v>246</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>324</v>
+        <v>247</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>325</v>
+        <v>248</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>40</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>326</v>
+        <v>250</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7915,7 +7863,7 @@
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
@@ -7927,18 +7875,20 @@
         <v>50</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>328</v>
+        <v>252</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7950,7 +7900,7 @@
         <v>40</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>40</v>
@@ -7962,13 +7912,13 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>331</v>
+        <v>255</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>332</v>
+        <v>256</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>40</v>
@@ -7986,13 +7936,13 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
@@ -8001,21 +7951,21 @@
         <v>61</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>334</v>
+        <v>257</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>325</v>
+        <v>258</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>40</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>335</v>
+        <v>260</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8023,13 +7973,13 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>40</v>
@@ -8041,16 +7991,16 @@
         <v>51</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>336</v>
+        <v>261</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>337</v>
+        <v>262</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>338</v>
+        <v>263</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>339</v>
+        <v>264</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -8063,7 +8013,7 @@
         <v>40</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>340</v>
+        <v>40</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>40</v>
@@ -8099,7 +8049,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>341</v>
+        <v>260</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8108,27 +8058,27 @@
         <v>49</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>342</v>
+        <v>266</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>343</v>
+        <v>267</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>344</v>
+        <v>268</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8139,28 +8089,32 @@
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>345</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>346</v>
+        <v>269</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
       </c>
@@ -8172,7 +8126,7 @@
         <v>40</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>348</v>
+        <v>40</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>40</v>
@@ -8208,7 +8162,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>349</v>
+        <v>268</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8223,13 +8177,13 @@
         <v>61</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>40</v>
@@ -8237,18 +8191,18 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>353</v>
+        <v>273</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>354</v>
+        <v>40</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>50</v>
@@ -8257,19 +8211,23 @@
         <v>40</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>51</v>
+        <v>274</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>355</v>
+        <v>275</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8281,7 +8239,7 @@
         <v>40</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>357</v>
+        <v>40</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>40</v>
@@ -8317,70 +8275,72 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>61</v>
+        <v>280</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>359</v>
+        <v>281</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>360</v>
+        <v>282</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>361</v>
+        <v>283</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>362</v>
+        <v>284</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>363</v>
+        <v>40</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>51</v>
+        <v>285</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>364</v>
+        <v>286</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>365</v>
+        <v>287</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8392,7 +8352,7 @@
         <v>40</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>367</v>
+        <v>40</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>40</v>
@@ -8428,40 +8388,40 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>368</v>
+        <v>284</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>61</v>
+        <v>291</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>370</v>
+        <v>293</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>372</v>
+        <v>40</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8471,22 +8431,22 @@
         <v>49</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>373</v>
+        <v>63</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>374</v>
+        <v>64</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8513,13 +8473,13 @@
         <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>375</v>
+        <v>40</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>376</v>
+        <v>40</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>40</v>
@@ -8537,7 +8497,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>377</v>
+        <v>65</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8549,55 +8509,57 @@
         <v>40</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>378</v>
+        <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>379</v>
+        <v>40</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>380</v>
+        <v>66</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>381</v>
+        <v>295</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>382</v>
+        <v>68</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>383</v>
+        <v>70</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8610,7 +8572,7 @@
         <v>40</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>385</v>
+        <v>40</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>40</v>
@@ -8634,48 +8596,48 @@
         <v>40</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>386</v>
+        <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>387</v>
+        <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>388</v>
+        <v>40</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>389</v>
+        <v>66</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>390</v>
+        <v>296</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8689,27 +8651,29 @@
         <v>49</v>
       </c>
       <c r="G64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>391</v>
+        <v>297</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>392</v>
+        <v>298</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>40</v>
       </c>
@@ -8721,7 +8685,7 @@
         <v>40</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>40</v>
@@ -8733,13 +8697,13 @@
         <v>40</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>40</v>
+        <v>302</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>40</v>
@@ -8757,7 +8721,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8772,13 +8736,13 @@
         <v>61</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>395</v>
+        <v>305</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>396</v>
+        <v>306</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>397</v>
+        <v>307</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>40</v>
@@ -8786,7 +8750,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>398</v>
+        <v>308</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8809,18 +8773,18 @@
         <v>50</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>238</v>
+        <v>125</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>399</v>
+        <v>309</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>40</v>
       </c>
@@ -8832,7 +8796,7 @@
         <v>40</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>402</v>
+        <v>312</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>40</v>
@@ -8844,13 +8808,13 @@
         <v>40</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>40</v>
@@ -8868,7 +8832,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>403</v>
+        <v>315</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8883,13 +8847,13 @@
         <v>61</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>404</v>
+        <v>316</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>405</v>
+        <v>307</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>40</v>
@@ -8897,7 +8861,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>406</v>
+        <v>317</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8920,17 +8884,19 @@
         <v>50</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>246</v>
+        <v>51</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>407</v>
+        <v>318</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="N66" t="s" s="2">
-        <v>409</v>
+        <v>321</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -8943,7 +8909,7 @@
         <v>40</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>40</v>
+        <v>322</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>40</v>
@@ -8979,7 +8945,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>406</v>
+        <v>323</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8994,21 +8960,21 @@
         <v>61</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>265</v>
+        <v>324</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>410</v>
+        <v>325</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>411</v>
+        <v>326</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9019,32 +8985,28 @@
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>42</v>
+        <v>327</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>412</v>
+        <v>51</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>413</v>
+        <v>328</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>40</v>
       </c>
@@ -9056,7 +9018,7 @@
         <v>40</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>40</v>
@@ -9092,7 +9054,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>411</v>
+        <v>331</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -9107,25 +9069,25 @@
         <v>61</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>40</v>
+        <v>332</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>417</v>
+        <v>334</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>418</v>
+        <v>335</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9135,22 +9097,22 @@
         <v>49</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>63</v>
+        <v>337</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>64</v>
+        <v>338</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9165,7 +9127,7 @@
         <v>40</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>40</v>
+        <v>339</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>40</v>
@@ -9201,7 +9163,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>65</v>
+        <v>340</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9213,16 +9175,16 @@
         <v>40</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>40</v>
+        <v>341</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>40</v>
+        <v>342</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>66</v>
+        <v>343</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>40</v>
@@ -9230,18 +9192,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>419</v>
+        <v>344</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>68</v>
+        <v>345</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>40</v>
@@ -9250,19 +9212,19 @@
         <v>40</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>70</v>
+        <v>346</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>71</v>
+        <v>347</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>72</v>
+        <v>348</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9276,7 +9238,7 @@
         <v>40</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>40</v>
+        <v>349</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>40</v>
@@ -9312,72 +9274,68 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>66</v>
+        <v>352</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>420</v>
+        <v>353</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>421</v>
+        <v>354</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>422</v>
+        <v>355</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>40</v>
       </c>
@@ -9401,13 +9359,13 @@
         <v>40</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>40</v>
+        <v>358</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>40</v>
@@ -9425,40 +9383,40 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>424</v>
+        <v>359</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>40</v>
+        <v>360</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>40</v>
+        <v>361</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>148</v>
+        <v>362</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>425</v>
+        <v>363</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>40</v>
+        <v>364</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9468,27 +9426,25 @@
         <v>49</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>426</v>
+        <v>365</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>427</v>
+        <v>366</v>
       </c>
       <c r="M71" s="2"/>
-      <c r="N71" t="s" s="2">
-        <v>428</v>
-      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>40</v>
       </c>
@@ -9500,7 +9456,7 @@
         <v>40</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>40</v>
+        <v>367</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>40</v>
@@ -9512,13 +9468,13 @@
         <v>40</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>429</v>
+        <v>40</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>430</v>
+        <v>40</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>40</v>
@@ -9536,7 +9492,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>425</v>
+        <v>368</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9551,21 +9507,21 @@
         <v>61</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>40</v>
+        <v>369</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>40</v>
+        <v>370</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>431</v>
+        <v>371</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>432</v>
+        <v>372</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9579,27 +9535,27 @@
         <v>49</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>433</v>
+        <v>51</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>434</v>
+        <v>373</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>40</v>
       </c>
@@ -9647,7 +9603,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9662,13 +9618,13 @@
         <v>61</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>40</v>
+        <v>377</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>437</v>
+        <v>378</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>438</v>
+        <v>379</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>40</v>
@@ -9676,7 +9632,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>439</v>
+        <v>380</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9687,7 +9643,7 @@
         <v>41</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>40</v>
@@ -9696,20 +9652,20 @@
         <v>40</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>292</v>
+        <v>213</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>440</v>
+        <v>381</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>441</v>
+        <v>382</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>442</v>
+        <v>383</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>40</v>
@@ -9722,7 +9678,7 @@
         <v>40</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>40</v>
+        <v>384</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>40</v>
@@ -9758,13 +9714,13 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>439</v>
+        <v>385</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>40</v>
@@ -9773,13 +9729,13 @@
         <v>61</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>444</v>
+        <v>387</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>40</v>
@@ -9787,7 +9743,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>445</v>
+        <v>388</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9807,20 +9763,20 @@
         <v>40</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>303</v>
+        <v>221</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>446</v>
+        <v>389</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>447</v>
+        <v>390</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>448</v>
+        <v>391</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>40</v>
@@ -9869,7 +9825,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>445</v>
+        <v>388</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9884,13 +9840,13 @@
         <v>61</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>449</v>
+        <v>247</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>450</v>
+        <v>392</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>40</v>
@@ -9898,7 +9854,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>451</v>
+        <v>393</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9921,17 +9877,19 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>452</v>
+        <v>394</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>453</v>
+        <v>395</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="N75" t="s" s="2">
-        <v>455</v>
+        <v>398</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>40</v>
@@ -9980,7 +9938,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>451</v>
+        <v>393</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -10001,14 +9959,902 @@
         <v>40</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AM76" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM75">
+  <autoFilter ref="A1:AM83">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10018,7 +10864,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI74">
+  <conditionalFormatting sqref="A2:AI82">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-CARIN-BB-Organization.xlsx
+++ b/StructureDefinition-CARIN-BB-Organization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="437">
   <si>
     <t>Path</t>
   </si>
@@ -768,10 +768,8 @@
       &lt;code value="tax"/&gt;
     &lt;/coding&gt;
   &lt;/type&gt;
+  &lt;system value="urn:oid:2.16.840.1.113883.4.4"/&gt;
 &lt;/valueIdentifier&gt;</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.840.1.113883.4.4</t>
   </si>
   <si>
     <t>payerid</t>
@@ -6333,7 +6331,7 @@
         <v>40</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>198</v>
@@ -6735,7 +6733,7 @@
         <v>157</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>40</v>
@@ -6760,7 +6758,7 @@
         <v>158</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>160</v>
@@ -6779,7 +6777,7 @@
         <v>40</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>40</v>
@@ -7737,7 +7735,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7760,26 +7758,26 @@
         <v>50</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P56" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="O56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>245</v>
-      </c>
       <c r="Q56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7823,7 +7821,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7838,21 +7836,21 @@
         <v>61</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>249</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7878,16 +7876,16 @@
         <v>184</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -7915,11 +7913,11 @@
         <v>115</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7936,7 +7934,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7954,18 +7952,18 @@
         <v>66</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>259</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7991,16 +7989,16 @@
         <v>51</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -8049,7 +8047,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8064,13 +8062,13 @@
         <v>61</v>
       </c>
       <c r="AJ58" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AL58" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>40</v>
@@ -8078,7 +8076,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8104,16 +8102,16 @@
         <v>51</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -8162,7 +8160,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8183,7 +8181,7 @@
         <v>40</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>40</v>
@@ -8191,7 +8189,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8214,19 +8212,19 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8275,7 +8273,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8284,19 +8282,19 @@
         <v>42</v>
       </c>
       <c r="AH60" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AI60" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AI60" t="s" s="2">
+      <c r="AJ60" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AJ60" t="s" s="2">
+      <c r="AK60" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>40</v>
@@ -8304,7 +8302,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8327,19 +8325,19 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8388,7 +8386,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8397,19 +8395,19 @@
         <v>42</v>
       </c>
       <c r="AH61" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AI61" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>66</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>40</v>
@@ -8417,7 +8415,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8526,7 +8524,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8637,7 +8635,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8663,16 +8661,16 @@
         <v>125</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8685,7 +8683,7 @@
         <v>40</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>40</v>
@@ -8700,28 +8698,28 @@
         <v>178</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="Y64" t="s" s="2">
+      <c r="Z64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE64" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8736,13 +8734,13 @@
         <v>61</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AK64" t="s" s="2">
+      <c r="AL64" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>40</v>
@@ -8750,7 +8748,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8776,13 +8774,13 @@
         <v>125</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8796,7 +8794,7 @@
         <v>40</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>40</v>
@@ -8811,28 +8809,28 @@
         <v>178</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="Y65" t="s" s="2">
+      <c r="Z65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE65" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8850,10 +8848,10 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>40</v>
@@ -8861,7 +8859,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8887,16 +8885,16 @@
         <v>51</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -8909,43 +8907,43 @@
         <v>40</v>
       </c>
       <c r="S66" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE66" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8963,10 +8961,10 @@
         <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>40</v>
@@ -8974,7 +8972,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8985,7 +8983,7 @@
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>50</v>
@@ -9000,10 +8998,10 @@
         <v>51</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9018,43 +9016,43 @@
         <v>40</v>
       </c>
       <c r="S67" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE67" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -9069,13 +9067,13 @@
         <v>61</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AK67" t="s" s="2">
+      <c r="AL67" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>40</v>
@@ -9083,11 +9081,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9109,10 +9107,10 @@
         <v>51</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9127,43 +9125,43 @@
         <v>40</v>
       </c>
       <c r="S68" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE68" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9178,13 +9176,13 @@
         <v>61</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AK68" t="s" s="2">
+      <c r="AL68" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>40</v>
@@ -9192,11 +9190,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9218,13 +9216,13 @@
         <v>51</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9238,43 +9236,43 @@
         <v>40</v>
       </c>
       <c r="S69" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE69" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9292,10 +9290,10 @@
         <v>40</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>40</v>
@@ -9303,11 +9301,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9329,10 +9327,10 @@
         <v>51</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9362,28 +9360,28 @@
         <v>107</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="Y70" t="s" s="2">
+      <c r="Z70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE70" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9398,13 +9396,13 @@
         <v>61</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AK70" t="s" s="2">
+      <c r="AL70" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>40</v>
@@ -9412,11 +9410,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9438,10 +9436,10 @@
         <v>51</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9456,43 +9454,43 @@
         <v>40</v>
       </c>
       <c r="S71" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE71" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9507,13 +9505,13 @@
         <v>61</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>40</v>
@@ -9521,7 +9519,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9547,13 +9545,13 @@
         <v>51</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9603,7 +9601,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9618,13 +9616,13 @@
         <v>61</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AK72" t="s" s="2">
+      <c r="AL72" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>40</v>
@@ -9632,7 +9630,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9658,14 +9656,14 @@
         <v>213</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>40</v>
@@ -9678,43 +9676,43 @@
         <v>40</v>
       </c>
       <c r="S73" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE73" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9732,10 +9730,10 @@
         <v>217</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>40</v>
@@ -9743,7 +9741,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9769,14 +9767,14 @@
         <v>221</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>40</v>
@@ -9825,7 +9823,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9843,10 +9841,10 @@
         <v>66</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>40</v>
@@ -9854,7 +9852,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9877,19 +9875,19 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>40</v>
@@ -9938,7 +9936,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9959,7 +9957,7 @@
         <v>40</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>40</v>
@@ -9967,7 +9965,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10076,7 +10074,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10187,11 +10185,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10213,10 +10211,10 @@
         <v>69</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>72</v>
@@ -10271,7 +10269,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10300,7 +10298,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10326,14 +10324,14 @@
         <v>184</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>40</v>
@@ -10361,11 +10359,11 @@
         <v>107</v>
       </c>
       <c r="X79" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Y79" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="Y79" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="Z79" t="s" s="2">
         <v>40</v>
       </c>
@@ -10382,7 +10380,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10403,7 +10401,7 @@
         <v>40</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>40</v>
@@ -10411,7 +10409,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10434,17 +10432,17 @@
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>40</v>
@@ -10493,7 +10491,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10511,10 +10509,10 @@
         <v>40</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>40</v>
@@ -10522,7 +10520,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10545,17 +10543,17 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>40</v>
@@ -10604,7 +10602,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10622,10 +10620,10 @@
         <v>40</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>40</v>
@@ -10633,7 +10631,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10656,17 +10654,17 @@
         <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>40</v>
@@ -10715,7 +10713,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10733,10 +10731,10 @@
         <v>40</v>
       </c>
       <c r="AK82" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>40</v>
@@ -10744,7 +10742,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10767,17 +10765,17 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>40</v>
@@ -10826,7 +10824,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-Organization.xlsx
+++ b/StructureDefinition-CARIN-BB-Organization.xlsx
@@ -764,8 +764,8 @@
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
   &lt;type&gt;
     &lt;coding&gt;
-      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/IdentifierTypeCS"/&gt;
-      &lt;code value="tax"/&gt;
+      &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
+      &lt;code value="TAX"/&gt;
     &lt;/coding&gt;
   &lt;/type&gt;
   &lt;system value="urn:oid:2.16.840.1.113883.4.4"/&gt;
